--- a/data/trans_orig/PCS12_SP_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PCS12_SP_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>162390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142423</v>
+        <v>142372</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182911</v>
+        <v>184830</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3286817661209922</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2882685134084108</v>
+        <v>0.288165519258693</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3702167055341501</v>
+        <v>0.3741007263429569</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>167</v>
@@ -765,19 +765,19 @@
         <v>161498</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>141318</v>
+        <v>142357</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>181649</v>
+        <v>182356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3454573884620338</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3022919583464163</v>
+        <v>0.3045142176229105</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3885621586215643</v>
+        <v>0.3900757817480772</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>328</v>
@@ -786,19 +786,19 @@
         <v>323887</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>295370</v>
+        <v>295965</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>353566</v>
+        <v>353339</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3368377604222745</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3071798673164186</v>
+        <v>0.3077986655928731</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3677025965138861</v>
+        <v>0.36746703904675</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>217693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>195044</v>
+        <v>196073</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>238162</v>
+        <v>239788</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4406179211864994</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.394774116585984</v>
+        <v>0.3968572813032563</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4820471157467361</v>
+        <v>0.4853384073295269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -836,19 +836,19 @@
         <v>173348</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153414</v>
+        <v>153942</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195179</v>
+        <v>194513</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3708064438454766</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3281654624663286</v>
+        <v>0.3292946760345085</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4175055819784525</v>
+        <v>0.4160795417799423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>412</v>
@@ -857,19 +857,19 @@
         <v>391041</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>359393</v>
+        <v>363885</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>420568</v>
+        <v>423118</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4066768846167572</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3737628260115217</v>
+        <v>0.3784343537823342</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4373843959335416</v>
+        <v>0.440036122854465</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>92977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>75997</v>
+        <v>77834</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112160</v>
+        <v>112477</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1881881623833118</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1538206499704633</v>
+        <v>0.1575382908104064</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2270150247129049</v>
+        <v>0.2276559540738411</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -907,19 +907,19 @@
         <v>107296</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>90092</v>
+        <v>89886</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>124705</v>
+        <v>127219</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2295150373385866</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1927142899272088</v>
+        <v>0.1922733330269218</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2667542372456167</v>
+        <v>0.2721327883072001</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>201</v>
@@ -928,19 +928,19 @@
         <v>200273</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>178265</v>
+        <v>174895</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>229273</v>
+        <v>227218</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2082805172165751</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1853932750556337</v>
+        <v>0.1818879245500607</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2384398655347971</v>
+        <v>0.2363035275992076</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>21004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13567</v>
+        <v>13695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>31958</v>
+        <v>31962</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04251215030919653</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02746059620255015</v>
+        <v>0.0277185452346933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0646831911077617</v>
+        <v>0.06469218711207243</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -978,19 +978,19 @@
         <v>25348</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16921</v>
+        <v>17240</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36616</v>
+        <v>36090</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05422113035390289</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03619463710105391</v>
+        <v>0.03687737324174997</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0783237730565343</v>
+        <v>0.07719983607554166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -999,19 +999,19 @@
         <v>46352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34841</v>
+        <v>34735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60921</v>
+        <v>61276</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04820483774439325</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03623428559292692</v>
+        <v>0.0361237653764725</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.063356645313198</v>
+        <v>0.06372640983982565</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>255755</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>229019</v>
+        <v>229379</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>283141</v>
+        <v>282106</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3477348713421652</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3113837316486348</v>
+        <v>0.3118727676789062</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3849696982851024</v>
+        <v>0.3835629336966989</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>178</v>
@@ -1124,19 +1124,19 @@
         <v>188089</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>166821</v>
+        <v>166018</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>210591</v>
+        <v>211791</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3007042739937134</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2667023454559357</v>
+        <v>0.2654191471903193</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3366795939421814</v>
+        <v>0.3385984635780644</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>425</v>
@@ -1145,19 +1145,19 @@
         <v>443844</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>410198</v>
+        <v>410373</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>481569</v>
+        <v>476736</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3261200824085178</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3013983212407389</v>
+        <v>0.3015268004504983</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3538394713821385</v>
+        <v>0.3502885015212808</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>302593</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>275549</v>
+        <v>274747</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>329734</v>
+        <v>330413</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4114168137660856</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3746474480500604</v>
+        <v>0.3735567004634537</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4483197358927948</v>
+        <v>0.4492420315259712</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>183</v>
@@ -1195,19 +1195,19 @@
         <v>189971</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>166637</v>
+        <v>168905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>213478</v>
+        <v>214482</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3037137862489384</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2664086953766729</v>
+        <v>0.2700337800984575</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3412944065835869</v>
+        <v>0.3429009505862394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>472</v>
@@ -1216,19 +1216,19 @@
         <v>492563</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>455315</v>
+        <v>460232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>526499</v>
+        <v>531032</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3619175869106437</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3345487992022715</v>
+        <v>0.3381617551092779</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3868524143204808</v>
+        <v>0.3901828098930617</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>145844</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>125868</v>
+        <v>124884</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>170147</v>
+        <v>170287</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1982958275582123</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1711356156270173</v>
+        <v>0.1697967386272303</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2313391833061773</v>
+        <v>0.2315291236668858</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>176</v>
@@ -1266,19 +1266,19 @@
         <v>189106</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168381</v>
+        <v>167690</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>212385</v>
+        <v>212275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3023303773544445</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2691961069357878</v>
+        <v>0.268091425760676</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3395478058747488</v>
+        <v>0.3393715220652907</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>314</v>
@@ -1287,19 +1287,19 @@
         <v>334950</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>302926</v>
+        <v>304601</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>368957</v>
+        <v>369119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.24610905899544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2225786438616272</v>
+        <v>0.2238097210302301</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.271096164112782</v>
+        <v>0.2712153632678027</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>31297</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20770</v>
+        <v>20577</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>45292</v>
+        <v>44803</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0425524873335369</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02823963426815179</v>
+        <v>0.02797663209254038</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06158106444860827</v>
+        <v>0.06091527653553412</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>54</v>
@@ -1337,19 +1337,19 @@
         <v>58328</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>45511</v>
+        <v>44398</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>74645</v>
+        <v>73408</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09325156240290373</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07275959647231166</v>
+        <v>0.07098109043468141</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1193384309131433</v>
+        <v>0.1173594964209262</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>83</v>
@@ -1358,19 +1358,19 @@
         <v>89625</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>71614</v>
+        <v>72437</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>108960</v>
+        <v>109594</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06585327168539852</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05261903626787658</v>
+        <v>0.05322442996962422</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08006000514428462</v>
+        <v>0.08052593948969475</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>193517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171157</v>
+        <v>168830</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>218864</v>
+        <v>217470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3030016701442813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2679899108144644</v>
+        <v>0.2643472594152261</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3426876555565058</v>
+        <v>0.3405057489770516</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -1483,19 +1483,19 @@
         <v>162539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>140842</v>
+        <v>141829</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186500</v>
+        <v>184943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2356516810781748</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2041941452487899</v>
+        <v>0.2056260866958918</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2703899521268883</v>
+        <v>0.2681333458526197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>334</v>
@@ -1504,19 +1504,19 @@
         <v>356057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>324524</v>
+        <v>325050</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>390281</v>
+        <v>388957</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2680318914376826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2442947212171713</v>
+        <v>0.2446908717965548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2937951558864833</v>
+        <v>0.2927983850684948</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>222687</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>197139</v>
+        <v>200006</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>247847</v>
+        <v>248750</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3486734238678216</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3086726459939622</v>
+        <v>0.3131610972678076</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3880690146964433</v>
+        <v>0.3894819124875633</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>183</v>
@@ -1554,19 +1554,19 @@
         <v>192027</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>168208</v>
+        <v>171197</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>214268</v>
+        <v>215284</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2784037005906166</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2438707771382455</v>
+        <v>0.2482032353566726</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3106485200616184</v>
+        <v>0.3121216030934001</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>402</v>
@@ -1575,19 +1575,19 @@
         <v>414714</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>382647</v>
+        <v>381551</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>449529</v>
+        <v>451621</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3121876470050247</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2880482012539876</v>
+        <v>0.2872236588046184</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3383958153659166</v>
+        <v>0.3399703913382782</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>178272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>157376</v>
+        <v>155519</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204447</v>
+        <v>202723</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2791313473081422</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2464131770040239</v>
+        <v>0.2435055140160323</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3201142277312951</v>
+        <v>0.3174158470725216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>229</v>
@@ -1625,19 +1625,19 @@
         <v>239984</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>213862</v>
+        <v>216412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>263243</v>
+        <v>263351</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3479313152852829</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.310059564264545</v>
+        <v>0.3137570353767469</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.381652849482537</v>
+        <v>0.3818098594186585</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>402</v>
@@ -1646,19 +1646,19 @@
         <v>418256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>384285</v>
+        <v>384412</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>450023</v>
+        <v>451900</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3148539908978862</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2892814980172217</v>
+        <v>0.2893769876353093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3387678370718931</v>
+        <v>0.3401804522643032</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>44192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>31517</v>
+        <v>32522</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>57121</v>
+        <v>57410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06919355867975492</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04934833422372471</v>
+        <v>0.0509209582325834</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08943712546031271</v>
+        <v>0.08988974240266341</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>90</v>
@@ -1696,19 +1696,19 @@
         <v>95194</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>78209</v>
+        <v>77429</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>113849</v>
+        <v>113568</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1380133030459257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1133877687390563</v>
+        <v>0.1122578254393196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.165059832076741</v>
+        <v>0.1646528543168811</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>133</v>
@@ -1717,19 +1717,19 @@
         <v>139386</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>119129</v>
+        <v>116384</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>162843</v>
+        <v>161937</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1049264706594065</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08967801462730352</v>
+        <v>0.08761107946060936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.12258488925766</v>
+        <v>0.1219030626867057</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>107208</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>88658</v>
+        <v>88349</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>127707</v>
+        <v>126061</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2065071883660825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1707758981460567</v>
+        <v>0.1701809281257542</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2459944433137227</v>
+        <v>0.242823280056742</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>86</v>
@@ -1842,19 +1842,19 @@
         <v>89774</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>74723</v>
+        <v>74285</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>107431</v>
+        <v>107528</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1741010352474399</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1449122740991614</v>
+        <v>0.1440631639592863</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2083432300331485</v>
+        <v>0.2085313424474908</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -1863,19 +1863,19 @@
         <v>196981</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>169371</v>
+        <v>171307</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>222754</v>
+        <v>226626</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.190358995108198</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1636772735410402</v>
+        <v>0.1655479299144054</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2152654524540221</v>
+        <v>0.2190071342354033</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>190989</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169358</v>
+        <v>169647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>213503</v>
+        <v>214232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3678895927466537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3262233469970687</v>
+        <v>0.3267802115364321</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4112578266971041</v>
+        <v>0.4126621769731296</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>110</v>
@@ -1913,19 +1913,19 @@
         <v>113221</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>96231</v>
+        <v>94733</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>131918</v>
+        <v>131832</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2195734644096715</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1866232678350807</v>
+        <v>0.1837178304796277</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2558323310111897</v>
+        <v>0.2556648108391904</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -1934,19 +1934,19 @@
         <v>304210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274693</v>
+        <v>273463</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333566</v>
+        <v>335077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2939827178739007</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2654583105539413</v>
+        <v>0.2642693669329368</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3223514278076868</v>
+        <v>0.3238115031010826</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>162586</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142185</v>
+        <v>142177</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>187626</v>
+        <v>183869</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3131793631547012</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2738826303894977</v>
+        <v>0.2738663453712488</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3614125662988303</v>
+        <v>0.3541750449677412</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>182</v>
@@ -1984,19 +1984,19 @@
         <v>187585</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>166584</v>
+        <v>168431</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>209905</v>
+        <v>209726</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3637889282492148</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3230612863926969</v>
+        <v>0.3266442370137427</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4070758423650727</v>
+        <v>0.4067283492949055</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>330</v>
@@ -2005,19 +2005,19 @@
         <v>350171</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>320590</v>
+        <v>319370</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>381250</v>
+        <v>385265</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3383984329668952</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3098116516286445</v>
+        <v>0.3086327145435762</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3684325475461569</v>
+        <v>0.3723128301866295</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>58365</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44866</v>
+        <v>44095</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>74923</v>
+        <v>73830</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1124238557325626</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08642322489659018</v>
+        <v>0.08493808118107331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1443188498570055</v>
+        <v>0.1422132908190746</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>124</v>
@@ -2055,19 +2055,19 @@
         <v>125062</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106783</v>
+        <v>105994</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147026</v>
+        <v>144291</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2425365720936737</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2070865829618436</v>
+        <v>0.2055581376083326</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.285131537811996</v>
+        <v>0.27982861806315</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>179</v>
@@ -2076,19 +2076,19 @@
         <v>183427</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>159252</v>
+        <v>158851</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>208597</v>
+        <v>208672</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1772598540510062</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1538977196243954</v>
+        <v>0.1535106737590997</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2015837700414595</v>
+        <v>0.201656836102857</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>47627</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>35737</v>
+        <v>36172</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>62119</v>
+        <v>62281</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1231603393453312</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.09241189016406501</v>
+        <v>0.09353708821676658</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1606341009899264</v>
+        <v>0.1610533814642062</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -2201,19 +2201,19 @@
         <v>50615</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38678</v>
+        <v>38812</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>64791</v>
+        <v>64464</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1252896238266793</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0957410965877155</v>
+        <v>0.09607248174087311</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1603798202788317</v>
+        <v>0.1595702922891297</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>98</v>
@@ -2222,19 +2222,19 @@
         <v>98243</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>82557</v>
+        <v>80386</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>118525</v>
+        <v>118333</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1242482429901247</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1044105830473218</v>
+        <v>0.1016653045161278</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1499001605704659</v>
+        <v>0.1496567169944069</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>81985</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>67098</v>
+        <v>67206</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97515</v>
+        <v>99229</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2120061935906545</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1735111272047984</v>
+        <v>0.173788153101353</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2521645797237555</v>
+        <v>0.2565971133635194</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>64</v>
@@ -2272,19 +2272,19 @@
         <v>68055</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>53896</v>
+        <v>54892</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>84681</v>
+        <v>84404</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1684579295455817</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1334108156557024</v>
+        <v>0.1358770514270289</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2096143592342107</v>
+        <v>0.2089289725760358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>145</v>
@@ -2293,19 +2293,19 @@
         <v>150040</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>128012</v>
+        <v>130449</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>174208</v>
+        <v>173824</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1897563178253134</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1618978645077293</v>
+        <v>0.1649795450611713</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2203228467981684</v>
+        <v>0.2198372620276689</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>146516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>129070</v>
+        <v>129063</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>165999</v>
+        <v>166148</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3788794988501326</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3337647489537058</v>
+        <v>0.3337470155052307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4292592592065221</v>
+        <v>0.4296454240492149</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>148</v>
@@ -2343,19 +2343,19 @@
         <v>149870</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>131162</v>
+        <v>130776</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>168048</v>
+        <v>170395</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3709791564660893</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3246708749783635</v>
+        <v>0.3237135155168107</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4159751587392415</v>
+        <v>0.4217843384880025</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>298</v>
@@ -2364,19 +2364,19 @@
         <v>296387</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>269905</v>
+        <v>269559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>323561</v>
+        <v>322627</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3748430202348958</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3413506484474744</v>
+        <v>0.3409139789756684</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4092102649613538</v>
+        <v>0.4080288851675277</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>110581</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>94278</v>
+        <v>92547</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>128586</v>
+        <v>127517</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2859539682138816</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2437944242817812</v>
+        <v>0.2393196601619639</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3325130751181005</v>
+        <v>0.3297494543984987</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>133</v>
@@ -2414,19 +2414,19 @@
         <v>135446</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>117557</v>
+        <v>114872</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>154658</v>
+        <v>154513</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3352732901616496</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2909922745283388</v>
+        <v>0.2843470074173834</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3828303431304271</v>
+        <v>0.3824721582407404</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>247</v>
@@ -2435,19 +2435,19 @@
         <v>246027</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>220852</v>
+        <v>220655</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>273368</v>
+        <v>272258</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3111524189496662</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.279313667494254</v>
+        <v>0.27906423422056</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3457312386322161</v>
+        <v>0.3443274141387965</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>27353</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>18469</v>
+        <v>18256</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38147</v>
+        <v>38094</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09348921372552264</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06312286534455773</v>
+        <v>0.06239715232831931</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1303799479508744</v>
+        <v>0.1301980079788546</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -2560,19 +2560,19 @@
         <v>19326</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12552</v>
+        <v>11694</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28053</v>
+        <v>28288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05635436278175381</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03660217892590921</v>
+        <v>0.03410070468504165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0818019562709054</v>
+        <v>0.08248713115859085</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -2581,19 +2581,19 @@
         <v>46679</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35390</v>
+        <v>35649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60131</v>
+        <v>62415</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.0734507207310852</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05568701633844764</v>
+        <v>0.05609520895531478</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.09461782814292587</v>
+        <v>0.0982111111745828</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>39058</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>28954</v>
+        <v>29053</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>52063</v>
+        <v>52109</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1334939433780571</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09896114661903037</v>
+        <v>0.09929908713717213</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.177941438073371</v>
+        <v>0.1781010651925149</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -2631,19 +2631,19 @@
         <v>22526</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>14010</v>
+        <v>14427</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>31984</v>
+        <v>30922</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.06568522411796492</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.04085207791498438</v>
+        <v>0.04206935147070402</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.0932644541889792</v>
+        <v>0.09016961427677198</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>63</v>
@@ -2652,19 +2652,19 @@
         <v>61584</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>48276</v>
+        <v>49496</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>78599</v>
+        <v>78471</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09690339538009525</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.07596413258148738</v>
+        <v>0.07788356182414055</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1236764994919836</v>
+        <v>0.1234759235162355</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>114469</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>100178</v>
+        <v>97996</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>134067</v>
+        <v>130074</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.391235288961483</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3423915076966306</v>
+        <v>0.3349335459980253</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4582177354370335</v>
+        <v>0.4445700849656879</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>100</v>
@@ -2702,19 +2702,19 @@
         <v>91539</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>76579</v>
+        <v>77348</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>106994</v>
+        <v>108382</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2669286640415168</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2233061698589207</v>
+        <v>0.2255491685701105</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.311995092011488</v>
+        <v>0.3160435571226917</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>220</v>
@@ -2723,19 +2723,19 @@
         <v>206008</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>183862</v>
+        <v>185056</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>230681</v>
+        <v>229572</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.324157668631385</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.289310872130793</v>
+        <v>0.2911895684962983</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3629809523004162</v>
+        <v>0.3612360198863112</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>111703</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95682</v>
+        <v>96383</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>126633</v>
+        <v>128471</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3817815539349373</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3270244517145784</v>
+        <v>0.3294219313189857</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.432812064690764</v>
+        <v>0.4390920215302994</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>227</v>
@@ -2773,19 +2773,19 @@
         <v>209544</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>194126</v>
+        <v>191666</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>228062</v>
+        <v>225514</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6110317490587645</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.566074613687001</v>
+        <v>0.5589016134230824</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6650308310098855</v>
+        <v>0.6576021263397627</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>344</v>
@@ -2794,19 +2794,19 @@
         <v>321246</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>292936</v>
+        <v>296883</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>343328</v>
+        <v>344916</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5054882152574345</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.460941934882645</v>
+        <v>0.4671519062561953</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5402338890643706</v>
+        <v>0.5427334798875387</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>8490</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>4116</v>
+        <v>4588</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>14658</v>
+        <v>15954</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04044946542151198</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01960956541835381</v>
+        <v>0.02185945573472954</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06983736915441865</v>
+        <v>0.07601151023974234</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>5</v>
@@ -2919,19 +2919,19 @@
         <v>5790</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2196</v>
+        <v>2072</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>13037</v>
+        <v>12613</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01733973840141788</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006577465463313879</v>
+        <v>0.00620504187506867</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03904345873525009</v>
+        <v>0.03777272260128172</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>14</v>
@@ -2940,19 +2940,19 @@
         <v>14280</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8539</v>
+        <v>8201</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>23530</v>
+        <v>22798</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02625922953123616</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0157021733447594</v>
+        <v>0.01508108966413307</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04326980666473718</v>
+        <v>0.04192419856118505</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>10966</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4809</v>
+        <v>5099</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>19289</v>
+        <v>21452</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05224747452952239</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02291295192931948</v>
+        <v>0.0242937257038866</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09190472671566075</v>
+        <v>0.1022103536027539</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>6</v>
@@ -2990,19 +2990,19 @@
         <v>7099</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>3402</v>
+        <v>2325</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>14199</v>
+        <v>14281</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.02126158645333103</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.01018801511778222</v>
+        <v>0.006964388598324343</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0425244173962101</v>
+        <v>0.04276875646822038</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>16</v>
@@ -3011,19 +3011,19 @@
         <v>18065</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10579</v>
+        <v>11061</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>28592</v>
+        <v>28671</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03322098145634502</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01945402542409176</v>
+        <v>0.02034105696184838</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05257960752487424</v>
+        <v>0.05272504990501747</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>49889</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>37880</v>
+        <v>39330</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>62682</v>
+        <v>62818</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2376976939385331</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1804799224489788</v>
+        <v>0.1873884852113057</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.298650669859809</v>
+        <v>0.2992982536351506</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>44</v>
@@ -3061,19 +3061,19 @@
         <v>50868</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>36332</v>
+        <v>37810</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>65036</v>
+        <v>65725</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1523419704104995</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.108808901203173</v>
+        <v>0.1132350659730395</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1947735047594932</v>
+        <v>0.1968366988479708</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>96</v>
@@ -3082,19 +3082,19 @@
         <v>100757</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>83928</v>
+        <v>83846</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>121391</v>
+        <v>119414</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1852860903572879</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1543394748265099</v>
+        <v>0.1541878873693623</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2232310390674688</v>
+        <v>0.2195955371280514</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>140539</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>124996</v>
+        <v>126361</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>152863</v>
+        <v>152708</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6696053661104325</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5955492921109001</v>
+        <v>0.6020544949049845</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7283265676848231</v>
+        <v>0.7275848563286538</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>235</v>
@@ -3132,19 +3132,19 @@
         <v>270151</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>253107</v>
+        <v>254344</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>284518</v>
+        <v>283717</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.8090567047347517</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.758013476951554</v>
+        <v>0.7617179181371184</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8520859209548466</v>
+        <v>0.8496865733986388</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>384</v>
@@ -3153,19 +3153,19 @@
         <v>410689</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>390283</v>
+        <v>390865</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>430384</v>
+        <v>429787</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7552336986551309</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7177070409588244</v>
+        <v>0.7187786666472199</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7914518200060499</v>
+        <v>0.7903535548379279</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>802340</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>749070</v>
+        <v>753845</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>851922</v>
+        <v>853826</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2448739650737581</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2286160900129789</v>
+        <v>0.2300731906485849</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2600064650441409</v>
+        <v>0.2605875575872486</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>663</v>
@@ -3278,19 +3278,19 @@
         <v>677630</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>634952</v>
+        <v>633864</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>722438</v>
+        <v>724490</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2005299956155066</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1879003216321455</v>
+        <v>0.1875781890339181</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.213789826756162</v>
+        <v>0.2143971123978507</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1431</v>
@@ -3299,19 +3299,19 @@
         <v>1479971</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1407191</v>
+        <v>1415105</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1548288</v>
+        <v>1550689</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2223600134977757</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2114251213599541</v>
+        <v>0.2126142548436313</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2326244811761699</v>
+        <v>0.2329851891071869</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>1065970</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1010389</v>
+        <v>1011435</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1117483</v>
+        <v>1119586</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3253336765066387</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3083704279117792</v>
+        <v>0.3086897627214811</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3410555290986461</v>
+        <v>0.3416971824505677</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>757</v>
@@ -3349,19 +3349,19 @@
         <v>766247</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>719821</v>
+        <v>719327</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>818529</v>
+        <v>816942</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2267542979179747</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2130153263879888</v>
+        <v>0.2128691160621302</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2422257581174284</v>
+        <v>0.2417561070811942</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1802</v>
@@ -3370,19 +3370,19 @@
         <v>1832218</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1759767</v>
+        <v>1754606</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1910304</v>
+        <v>1905270</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2752837738242656</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2643984128095166</v>
+        <v>0.2636229202434553</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2870159752662539</v>
+        <v>0.2862596135450548</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>890554</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>839960</v>
+        <v>839432</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>952126</v>
+        <v>946214</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2717966870226289</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2563556147609876</v>
+        <v>0.2561944759544594</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2905885962001805</v>
+        <v>0.2887843521607318</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>989</v>
@@ -3420,19 +3420,19 @@
         <v>1016247</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>953880</v>
+        <v>961633</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1064910</v>
+        <v>1067544</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3007363794583098</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2822799742018949</v>
+        <v>0.2845744646072057</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3151369652232799</v>
+        <v>0.315916513289175</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1861</v>
@@ -3441,19 +3441,19 @@
         <v>1906801</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1834852</v>
+        <v>1832692</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1977602</v>
+        <v>1980805</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2864897071126358</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2756796285352925</v>
+        <v>0.2753550314046913</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2971272803178644</v>
+        <v>0.2976085210375961</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>517680</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>476798</v>
+        <v>474780</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>560653</v>
+        <v>560029</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1579956713969742</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.14551860692494</v>
+        <v>0.1449027459305638</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1711110876187533</v>
+        <v>0.170920721330434</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>888</v>
@@ -3491,19 +3491,19 @@
         <v>919072</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>869107</v>
+        <v>869659</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>970320</v>
+        <v>970768</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2719793270082089</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2571933473444453</v>
+        <v>0.2573566118516696</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2871450819736884</v>
+        <v>0.2872776276898303</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1417</v>
@@ -3512,19 +3512,19 @@
         <v>1436752</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1372698</v>
+        <v>1369774</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1509642</v>
+        <v>1502424</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2158665055653229</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2062426678123697</v>
+        <v>0.2058033824492898</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2268179905756705</v>
+        <v>0.2257335608490749</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>183680</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>162284</v>
+        <v>163838</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206536</v>
+        <v>205785</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4044509279355992</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3573393700491817</v>
+        <v>0.3607608549705862</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4547787104803633</v>
+        <v>0.4531251077893071</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>174</v>
@@ -3880,19 +3880,19 @@
         <v>174305</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156251</v>
+        <v>154154</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>195899</v>
+        <v>194983</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4051444844493274</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3631801685250265</v>
+        <v>0.3583052022749988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4553353789517426</v>
+        <v>0.4532073737538412</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>354</v>
@@ -3901,19 +3901,19 @@
         <v>357985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>327757</v>
+        <v>326071</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>388419</v>
+        <v>386248</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4047883282017177</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.370607887857998</v>
+        <v>0.3687013355618637</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4392007852242968</v>
+        <v>0.4367461985470582</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>160047</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>139437</v>
+        <v>140901</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>182402</v>
+        <v>180256</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3524134927956651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3070312759752332</v>
+        <v>0.3102542390451168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4016383421416338</v>
+        <v>0.3969123463289859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -3951,19 +3951,19 @@
         <v>133299</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>115278</v>
+        <v>114884</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>152631</v>
+        <v>153117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3098314034197717</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.26794607878705</v>
+        <v>0.2670295414502495</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.354765672732446</v>
+        <v>0.3558966979369218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>285</v>
@@ -3972,19 +3972,19 @@
         <v>293346</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>265593</v>
+        <v>267175</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>322460</v>
+        <v>325837</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3316982259025939</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3003166813529481</v>
+        <v>0.3021054548621419</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3646189397385929</v>
+        <v>0.3684372131031422</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>94276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77598</v>
+        <v>77726</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112524</v>
+        <v>111934</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2075889426629741</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1708656080269169</v>
+        <v>0.171148637909658</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2477709259198461</v>
+        <v>0.2464709276430586</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -4022,19 +4022,19 @@
         <v>94377</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78933</v>
+        <v>79155</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>112094</v>
+        <v>111807</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2193638452617705</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1834667140329537</v>
+        <v>0.18398345139162</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2605447760590695</v>
+        <v>0.2598775166654803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>185</v>
@@ -4043,19 +4043,19 @@
         <v>188653</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>163884</v>
+        <v>166898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>213911</v>
+        <v>215099</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.213317178490502</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1853101738003493</v>
+        <v>0.1887188673676728</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2418773375813563</v>
+        <v>0.2432212857646404</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>16143</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9674</v>
+        <v>9352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25485</v>
+        <v>25446</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03554663660576154</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02130155314501276</v>
+        <v>0.02059318743996559</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05611535168513104</v>
+        <v>0.05602995562255623</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -4093,19 +4093,19 @@
         <v>28249</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19525</v>
+        <v>19345</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41996</v>
+        <v>40701</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06566026686913044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04538283819442947</v>
+        <v>0.04496411759263765</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09761260516096146</v>
+        <v>0.09460389621412518</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -4114,19 +4114,19 @@
         <v>44392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32933</v>
+        <v>34139</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>58223</v>
+        <v>59970</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05019626740518643</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03723819629774526</v>
+        <v>0.03860208172315319</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06583487923263855</v>
+        <v>0.06781095083776435</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>257179</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>233374</v>
+        <v>232666</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>283463</v>
+        <v>283406</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3743034420623141</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3396564742095277</v>
+        <v>0.338626140287059</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4125580131348462</v>
+        <v>0.4124739978346809</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>195</v>
@@ -4239,19 +4239,19 @@
         <v>209533</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>186527</v>
+        <v>185176</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>232442</v>
+        <v>235436</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.343353683359239</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3056539917439786</v>
+        <v>0.3034408270864357</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.380893076698158</v>
+        <v>0.3857993330727602</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>440</v>
@@ -4260,19 +4260,19 @@
         <v>466712</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>432627</v>
+        <v>432944</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>506256</v>
+        <v>504176</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3597450209855353</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.333472167919193</v>
+        <v>0.3337161967854745</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3902256671133437</v>
+        <v>0.388622599286695</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>234204</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>209392</v>
+        <v>208313</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>259380</v>
+        <v>260144</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3408644269761619</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3047533007487541</v>
+        <v>0.3031830301114995</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3775071691790737</v>
+        <v>0.3786183258661551</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>172</v>
@@ -4310,19 +4310,19 @@
         <v>184745</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>162424</v>
+        <v>163186</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208700</v>
+        <v>209173</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3027333625393601</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2661581381382931</v>
+        <v>0.2674070497766617</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3419878519158394</v>
+        <v>0.3427628359529399</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>410</v>
@@ -4331,19 +4331,19 @@
         <v>418948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>385320</v>
+        <v>382586</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>454305</v>
+        <v>452140</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3229279998297496</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2970072627474882</v>
+        <v>0.2948997462027406</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3501814974894616</v>
+        <v>0.3485123729193121</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>151721</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130323</v>
+        <v>131882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>173138</v>
+        <v>177190</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2208177134460159</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1896752994665829</v>
+        <v>0.191943311349697</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2519880413824198</v>
+        <v>0.2578858692834866</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>164</v>
@@ -4381,19 +4381,19 @@
         <v>173724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>152333</v>
+        <v>150895</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>197400</v>
+        <v>195562</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2846751405718858</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2496226621250462</v>
+        <v>0.2472657381624228</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.32347139815613</v>
+        <v>0.3204586994264623</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>307</v>
@@ -4402,19 +4402,19 @@
         <v>325445</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>294111</v>
+        <v>296072</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>358985</v>
+        <v>360426</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2508555344803287</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2267030471495671</v>
+        <v>0.2282145473459433</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2767079220736121</v>
+        <v>0.2778189402658279</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>43983</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32375</v>
+        <v>31257</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>59089</v>
+        <v>58662</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06401441751550795</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0471193298021649</v>
+        <v>0.04549242171705044</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08599946679499473</v>
+        <v>0.0853781696091884</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>40</v>
@@ -4452,19 +4452,19 @@
         <v>42253</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31375</v>
+        <v>31402</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>55670</v>
+        <v>57095</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06923781352951509</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05141219145730767</v>
+        <v>0.05145777692524636</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09122394339539927</v>
+        <v>0.09355940778134421</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>81</v>
@@ -4473,19 +4473,19 @@
         <v>86236</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>68676</v>
+        <v>69355</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106408</v>
+        <v>105758</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06647144470438644</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05293600116685844</v>
+        <v>0.05345911100326859</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08202024063820441</v>
+        <v>0.08151930242779533</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>239114</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>212217</v>
+        <v>214888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>263734</v>
+        <v>266086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3506776186644973</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3112312565514672</v>
+        <v>0.3151479541686013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3867848554982031</v>
+        <v>0.390234385359316</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>174</v>
@@ -4598,19 +4598,19 @@
         <v>182334</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>159153</v>
+        <v>156826</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>206468</v>
+        <v>205692</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2565018050158939</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2238906779001817</v>
+        <v>0.2206169595990858</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2904520653554694</v>
+        <v>0.289359940449456</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>402</v>
@@ -4619,19 +4619,19 @@
         <v>421448</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>388394</v>
+        <v>385393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>458846</v>
+        <v>455962</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3026096551692991</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2788758714997258</v>
+        <v>0.2767209068897893</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3294622437496826</v>
+        <v>0.3273912388343136</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>193785</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>170583</v>
+        <v>171730</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>221748</v>
+        <v>218991</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.284199590579585</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2501726631195465</v>
+        <v>0.2518537409116509</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3252094087813652</v>
+        <v>0.3211656952276861</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>196</v>
@@ -4669,19 +4669,19 @@
         <v>211418</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>188040</v>
+        <v>184345</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>237538</v>
+        <v>236814</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2974158983007351</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2645289487534622</v>
+        <v>0.2593301565564279</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3341609338683813</v>
+        <v>0.3331417117111354</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>381</v>
@@ -4690,19 +4690,19 @@
         <v>405203</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>372523</v>
+        <v>372177</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>440888</v>
+        <v>442483</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2909452822011298</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.267480088195118</v>
+        <v>0.267232067546481</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3165679363990363</v>
+        <v>0.3177131859568212</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>186999</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164284</v>
+        <v>163002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212020</v>
+        <v>210355</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2742474323253067</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2409333370187257</v>
+        <v>0.2390539532240942</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3109415245247535</v>
+        <v>0.30850019069692</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>198</v>
@@ -4740,19 +4740,19 @@
         <v>211182</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>186288</v>
+        <v>187518</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235927</v>
+        <v>237673</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2970832448755595</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2620641165523462</v>
+        <v>0.2637943567522698</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3318937871770071</v>
+        <v>0.3343503127955196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>375</v>
@@ -4761,19 +4761,19 @@
         <v>398181</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>365916</v>
+        <v>362788</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434010</v>
+        <v>433794</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2859029833794708</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2627365474804406</v>
+        <v>0.2604901950937325</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.311629071068405</v>
+        <v>0.3114745660390209</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>61965</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48433</v>
+        <v>48686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78859</v>
+        <v>79554</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09087535843061091</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07102977665329649</v>
+        <v>0.07140144430829225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1156528110539734</v>
+        <v>0.1166714461491278</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>99</v>
@@ -4811,19 +4811,19 @@
         <v>105916</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>87753</v>
+        <v>88381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>126854</v>
+        <v>127772</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1489990518078115</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1234479658643772</v>
+        <v>0.1243316332453408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1784541099585029</v>
+        <v>0.1797455229601491</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>160</v>
@@ -4832,19 +4832,19 @@
         <v>167880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>145513</v>
+        <v>142974</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193425</v>
+        <v>195921</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1205420792501003</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1044816381209104</v>
+        <v>0.1026586288082967</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.138884054198432</v>
+        <v>0.1406756442889544</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>177034</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>153636</v>
+        <v>153408</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>200533</v>
+        <v>201065</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2880393562020231</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2499705360888232</v>
+        <v>0.2495985964830046</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3262732907515859</v>
+        <v>0.3271381898569733</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>120</v>
@@ -4957,19 +4957,19 @@
         <v>134302</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>110130</v>
+        <v>113899</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>156584</v>
+        <v>157923</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.217952766213216</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1787244481325639</v>
+        <v>0.1848416882820757</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2541130556936562</v>
+        <v>0.2562852217242348</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>279</v>
@@ -4978,19 +4978,19 @@
         <v>311336</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>279361</v>
+        <v>277851</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>344296</v>
+        <v>341178</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.252951007152461</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2269719075313433</v>
+        <v>0.2257454811225941</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2797297620652149</v>
+        <v>0.2771963583049235</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>177102</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>156377</v>
+        <v>152294</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204866</v>
+        <v>200552</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.288150954374306</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.254429468618849</v>
+        <v>0.2477864112368484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3333234347371434</v>
+        <v>0.326304403115299</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>148</v>
@@ -5028,19 +5028,19 @@
         <v>168470</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>146900</v>
+        <v>147073</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>192757</v>
+        <v>193253</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2734021937128308</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2383973083323622</v>
+        <v>0.2386774462216611</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3128158177702403</v>
+        <v>0.3136204439272408</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -5049,19 +5049,19 @@
         <v>345573</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>311097</v>
+        <v>311449</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>380858</v>
+        <v>380294</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2807670930361964</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2527569074369908</v>
+        <v>0.2530429211631734</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3094357618087878</v>
+        <v>0.3089772752951085</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>180321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>155252</v>
+        <v>156732</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>203689</v>
+        <v>206585</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2933869592253598</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2526000958889963</v>
+        <v>0.2550078479354108</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3314077619886419</v>
+        <v>0.3361200028672262</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>162</v>
@@ -5099,19 +5099,19 @@
         <v>191604</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>167520</v>
+        <v>166579</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>216570</v>
+        <v>215432</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3109444095657097</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.271860600834274</v>
+        <v>0.270332484795487</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3514613592984845</v>
+        <v>0.3496138609094748</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>319</v>
@@ -5120,19 +5120,19 @@
         <v>371924</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>337285</v>
+        <v>337172</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>409292</v>
+        <v>406687</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3021769709246155</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2740334816195881</v>
+        <v>0.273941974741359</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3325369538715273</v>
+        <v>0.3304204853111218</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>80160</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>63371</v>
+        <v>63997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>99665</v>
+        <v>97847</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1304227301983111</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1031064547093055</v>
+        <v>0.1041254932752028</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1621584140869054</v>
+        <v>0.1591994739771882</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>109</v>
@@ -5170,19 +5170,19 @@
         <v>121823</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>101725</v>
+        <v>102416</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144343</v>
+        <v>144795</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1977006305082435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1650846652575751</v>
+        <v>0.1662065333572502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2342472842004743</v>
+        <v>0.2349816218274189</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>182</v>
@@ -5191,19 +5191,19 @@
         <v>201983</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>176774</v>
+        <v>175735</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>230789</v>
+        <v>228312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1641049288867271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.143623519064511</v>
+        <v>0.1427788677298919</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1875088886089001</v>
+        <v>0.1854962106803016</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>82824</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>67645</v>
+        <v>67612</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>100364</v>
+        <v>101487</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1928690530473619</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1575238962046422</v>
+        <v>0.1574461093090612</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2337151405384983</v>
+        <v>0.2363297871035394</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -5316,19 +5316,19 @@
         <v>55239</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>42795</v>
+        <v>42089</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>72330</v>
+        <v>69995</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1233557774997503</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09556749407047244</v>
+        <v>0.09399071926834034</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1615230705549224</v>
+        <v>0.1563084513444706</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>126</v>
@@ -5337,19 +5337,19 @@
         <v>138062</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>117085</v>
+        <v>117737</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>161221</v>
+        <v>161447</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1573845454508191</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.133470909957187</v>
+        <v>0.1342149372887585</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1837838263246986</v>
+        <v>0.1840420800045864</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>91374</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>73669</v>
+        <v>75885</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110208</v>
+        <v>108799</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2127811372876244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1715506569694178</v>
+        <v>0.1767112834051643</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2566392529540605</v>
+        <v>0.2533582022624469</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -5387,19 +5387,19 @@
         <v>74604</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60007</v>
+        <v>60290</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>92765</v>
+        <v>92270</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1666003044741868</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1340034282753548</v>
+        <v>0.1346367266654914</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2071563248708021</v>
+        <v>0.2060519569449279</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>153</v>
@@ -5408,19 +5408,19 @@
         <v>165978</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>144076</v>
+        <v>141986</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194242</v>
+        <v>189229</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1892071638289761</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1642397311890576</v>
+        <v>0.1618575539374436</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2214266532230859</v>
+        <v>0.2157124518862533</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>153043</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>133946</v>
+        <v>133843</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>174004</v>
+        <v>175912</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3563868819813104</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3119161840456791</v>
+        <v>0.3116775789718378</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.405198787435617</v>
+        <v>0.4096417803001928</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>110</v>
@@ -5458,19 +5458,19 @@
         <v>121122</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>102176</v>
+        <v>103022</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>140688</v>
+        <v>142824</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2704830793491659</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2281740147771993</v>
+        <v>0.2300629140154568</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3141749348587701</v>
+        <v>0.3189448534791944</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>249</v>
@@ -5479,19 +5479,19 @@
         <v>274165</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>247283</v>
+        <v>246178</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>305743</v>
+        <v>304520</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3125354865024078</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2818913896738994</v>
+        <v>0.2806312446406709</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3485321553822636</v>
+        <v>0.3471382917659054</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>102188</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>84137</v>
+        <v>85074</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>120587</v>
+        <v>121127</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2379629276837033</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1959265983786835</v>
+        <v>0.1981093180570529</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2808088579519279</v>
+        <v>0.2820653564050484</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>177</v>
@@ -5529,19 +5529,19 @@
         <v>196835</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>175673</v>
+        <v>174619</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>217935</v>
+        <v>218829</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.439560838676897</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3923012798305803</v>
+        <v>0.3899496638908097</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4866796834319395</v>
+        <v>0.4886766435041998</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>271</v>
@@ -5550,19 +5550,19 @@
         <v>299024</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>267098</v>
+        <v>268013</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>326533</v>
+        <v>326544</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.340872804217797</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3044793713161098</v>
+        <v>0.3055225387523209</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3722322359396523</v>
+        <v>0.3722449839668696</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>27264</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17825</v>
+        <v>18280</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>38267</v>
+        <v>39125</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08800990825463019</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05753888153566501</v>
+        <v>0.05900864104987957</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1235264891610135</v>
+        <v>0.1262969228988415</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -5675,19 +5675,19 @@
         <v>23091</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14775</v>
+        <v>15583</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>32443</v>
+        <v>33379</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.06522931807350452</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0417368823495667</v>
+        <v>0.04401971581785592</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0916482608239536</v>
+        <v>0.09429217481406656</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -5696,19 +5696,19 @@
         <v>50355</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38288</v>
+        <v>37358</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>66253</v>
+        <v>66271</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.07586098648970639</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05768186984378847</v>
+        <v>0.05628005974235989</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.0998108494959008</v>
+        <v>0.09983848051395584</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>46969</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>37080</v>
+        <v>35624</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>62182</v>
+        <v>61452</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1516159610322967</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1196964315244187</v>
+        <v>0.1149958312375596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2007253411776165</v>
+        <v>0.1983701303671797</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>40</v>
@@ -5746,19 +5746,19 @@
         <v>44181</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33188</v>
+        <v>33127</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>59511</v>
+        <v>59020</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1248056743056625</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09375180373092204</v>
+        <v>0.09357978335634955</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1681117946602087</v>
+        <v>0.1667255348720976</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>84</v>
@@ -5767,19 +5767,19 @@
         <v>91149</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>74517</v>
+        <v>73848</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>112721</v>
+        <v>110847</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1373179962584552</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1122606544522259</v>
+        <v>0.1112529191660966</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1698166129781665</v>
+        <v>0.1669934171702822</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>103002</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>86469</v>
+        <v>86146</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>121758</v>
+        <v>120442</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3324930114620006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2791247839426906</v>
+        <v>0.2780818927972034</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3930397479763527</v>
+        <v>0.3887901063133065</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>67</v>
@@ -5817,19 +5817,19 @@
         <v>69637</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>55278</v>
+        <v>55310</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>84409</v>
+        <v>87697</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.19671564163718</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1561553300502681</v>
+        <v>0.1562450446478771</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2384448116534869</v>
+        <v>0.2477351839123812</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>161</v>
@@ -5838,19 +5838,19 @@
         <v>172638</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>151834</v>
+        <v>150766</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>199741</v>
+        <v>200144</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2600827433199766</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2287403036608469</v>
+        <v>0.2271320478336468</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3009133162541532</v>
+        <v>0.301520717366594</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>132552</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>113673</v>
+        <v>116271</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>150836</v>
+        <v>152432</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.4278811192510725</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3669406390508559</v>
+        <v>0.3753276306982016</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4869038909295472</v>
+        <v>0.4920549880676477</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>214</v>
@@ -5888,19 +5888,19 @@
         <v>217088</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>198525</v>
+        <v>198376</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>236208</v>
+        <v>235011</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.613249365983653</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5608102140924428</v>
+        <v>0.5603898754101218</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6672623638380947</v>
+        <v>0.6638798049626682</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>333</v>
@@ -5909,19 +5909,19 @@
         <v>349639</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>318125</v>
+        <v>322491</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>375927</v>
+        <v>377130</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.5267382739318618</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.4792612353498542</v>
+        <v>0.4858380143330371</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5663404451053964</v>
+        <v>0.5681534570679108</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>11958</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>5639</v>
+        <v>5526</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20859</v>
+        <v>21309</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04786237549118817</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02256909395136567</v>
+        <v>0.0221168120646569</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08348687761066882</v>
+        <v>0.08528579690831524</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>6</v>
@@ -6034,19 +6034,19 @@
         <v>6631</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2939</v>
+        <v>2340</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14220</v>
+        <v>13850</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.0170481233916226</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.007555568814202244</v>
+        <v>0.00601650733253738</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.03655689738054612</v>
+        <v>0.03560627194313613</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>16</v>
@@ -6055,19 +6055,19 @@
         <v>18590</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10747</v>
+        <v>10564</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>30335</v>
+        <v>30512</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.02909979438393811</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01682367683168542</v>
+        <v>0.01653668165958564</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04748574465686345</v>
+        <v>0.04776195745303888</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>18400</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>10770</v>
+        <v>11084</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>29516</v>
+        <v>28401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.07364557604982065</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04310432984332761</v>
+        <v>0.04436107839247274</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1181360389195322</v>
+        <v>0.1136733500061574</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>14</v>
@@ -6105,19 +6105,19 @@
         <v>15017</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>8496</v>
+        <v>8558</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>23695</v>
+        <v>24832</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03860524689142841</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02184058104285295</v>
+        <v>0.0220011812565386</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06091595824490476</v>
+        <v>0.0638387920552182</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>31</v>
@@ -6126,19 +6126,19 @@
         <v>33417</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>23520</v>
+        <v>23760</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>47266</v>
+        <v>48648</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05230976638178906</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03681787195959069</v>
+        <v>0.03719363273021702</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07398788321222272</v>
+        <v>0.07615114432875214</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>44065</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>31919</v>
+        <v>32415</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>57594</v>
+        <v>58500</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1763642982490864</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1277528463807865</v>
+        <v>0.1297370392582931</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2305115296109326</v>
+        <v>0.234138640449436</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>38</v>
@@ -6176,19 +6176,19 @@
         <v>42406</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>31534</v>
+        <v>29982</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>56830</v>
+        <v>56364</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.109018004531424</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08106983531675307</v>
+        <v>0.07707879131160368</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1461011641313976</v>
+        <v>0.1449013364421223</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>77</v>
@@ -6197,19 +6197,19 @@
         <v>86471</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>69279</v>
+        <v>67693</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>106877</v>
+        <v>105447</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1353576142618368</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1084468050231654</v>
+        <v>0.1059635938371423</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1673012294715753</v>
+        <v>0.1650619329010918</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>175427</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>158825</v>
+        <v>159020</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>190276</v>
+        <v>190636</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7021277502099048</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6356794525381343</v>
+        <v>0.6364577509996403</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7615598188056257</v>
+        <v>0.7629996889883763</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>292</v>
@@ -6247,19 +6247,19 @@
         <v>324925</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>309777</v>
+        <v>308434</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>338066</v>
+        <v>339148</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.835328625185525</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7963837691472907</v>
+        <v>0.7929330261514392</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8691106395756383</v>
+        <v>0.8718939392591698</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>448</v>
@@ -6268,19 +6268,19 @@
         <v>500353</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>473206</v>
+        <v>477245</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>519095</v>
+        <v>522040</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.783232824972436</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.7407379689563227</v>
+        <v>0.7470613193896239</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.812571884506334</v>
+        <v>0.8171815657516813</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>979053</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>926496</v>
+        <v>924653</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1036983</v>
+        <v>1034079</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2857065034191583</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2703693822656109</v>
+        <v>0.2698316145605247</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3026114936298521</v>
+        <v>0.3017640118427196</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>742</v>
@@ -6393,19 +6393,19 @@
         <v>785436</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>736523</v>
+        <v>736539</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>837494</v>
+        <v>840700</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2207330031815683</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2069866928284899</v>
+        <v>0.2069913769793003</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2353629248067426</v>
+        <v>0.2362638640289028</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1665</v>
@@ -6414,19 +6414,19 @@
         <v>1764489</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1694911</v>
+        <v>1700128</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1847454</v>
+        <v>1842109</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2526080230413384</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2426471196803472</v>
+        <v>0.2433938937379636</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2644854208292093</v>
+        <v>0.2637202913905539</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>921882</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>864749</v>
+        <v>873062</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>973865</v>
+        <v>974913</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2690228014622627</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2523503962270353</v>
+        <v>0.2547761680154297</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2841924841246113</v>
+        <v>0.2844984668770483</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>767</v>
@@ -6464,19 +6464,19 @@
         <v>831733</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>781508</v>
+        <v>781317</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>887138</v>
+        <v>883027</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2337437590138622</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.219629126286821</v>
+        <v>0.2195754593042499</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2493143972749748</v>
+        <v>0.2481591669582519</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1651</v>
@@ -6485,19 +6485,19 @@
         <v>1753614</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1676503</v>
+        <v>1678187</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1825550</v>
+        <v>1831467</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2510511254719471</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2400116557366565</v>
+        <v>0.2402528462161454</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2613495536871485</v>
+        <v>0.2621967637613746</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>913426</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>858231</v>
+        <v>860329</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>966484</v>
+        <v>967360</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2665552106353045</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2504484294777202</v>
+        <v>0.25106046814333</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2820387399355084</v>
+        <v>0.2822943103977331</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>831</v>
@@ -6535,19 +6535,19 @@
         <v>904051</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>845802</v>
+        <v>848424</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>956009</v>
+        <v>960040</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2540676418653992</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2376978421239417</v>
+        <v>0.2384344735494063</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2686693833171954</v>
+        <v>0.2698023816944274</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1673</v>
@@ -6556,19 +6556,19 @@
         <v>1817477</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1741037</v>
+        <v>1745151</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1893989</v>
+        <v>1895303</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2601938548766338</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2492505889668273</v>
+        <v>0.2498395394242849</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.271147544404193</v>
+        <v>0.2713355317294573</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>612418</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>566964</v>
+        <v>566834</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>661913</v>
+        <v>659141</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1787154844832746</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1654509730096534</v>
+        <v>0.1654130903929628</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.193158831063228</v>
+        <v>0.1923500774824448</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>958</v>
@@ -6606,19 +6606,19 @@
         <v>1037089</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>983941</v>
+        <v>976492</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1100599</v>
+        <v>1093418</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2914555959391704</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2765191303811136</v>
+        <v>0.2744258855450559</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3093040485501006</v>
+        <v>0.3072859052383654</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1518</v>
@@ -6627,19 +6627,19 @@
         <v>1649508</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1580382</v>
+        <v>1575285</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1725972</v>
+        <v>1721818</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2361469966100808</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2262508016619111</v>
+        <v>0.2255210754517412</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2470938181796452</v>
+        <v>0.2464991596612895</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>219667</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>198100</v>
+        <v>199803</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>241127</v>
+        <v>241661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5236864294255917</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4722704945236625</v>
+        <v>0.4763307289349805</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5748476855294614</v>
+        <v>0.5761199861872727</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>216</v>
@@ -6995,19 +6995,19 @@
         <v>209985</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189264</v>
+        <v>191149</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>229328</v>
+        <v>227822</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5305946369968224</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4782345891064459</v>
+        <v>0.4829987465238679</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5794694243562742</v>
+        <v>0.5756653774535858</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>423</v>
@@ -7016,19 +7016,19 @@
         <v>429653</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>400661</v>
+        <v>402464</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>461153</v>
+        <v>457447</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5270400817037257</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4914769907393401</v>
+        <v>0.4936890606457802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5656801809208091</v>
+        <v>0.5611347704039729</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>123389</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106081</v>
+        <v>106061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>144668</v>
+        <v>141893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2941602515843778</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2528978057984161</v>
+        <v>0.2528494251833648</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3448896613384884</v>
+        <v>0.3382731270926518</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -7066,19 +7066,19 @@
         <v>100315</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>83267</v>
+        <v>83721</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117319</v>
+        <v>117008</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2534776198100759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2103997811578693</v>
+        <v>0.2115472649245375</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2964444468744803</v>
+        <v>0.2956568304648045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>220</v>
@@ -7087,19 +7087,19 @@
         <v>223704</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197992</v>
+        <v>201503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>251108</v>
+        <v>250586</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2744104974949723</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2428694189914769</v>
+        <v>0.2471762666040392</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3080251823859473</v>
+        <v>0.3073850830938507</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>68641</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52469</v>
+        <v>53692</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85207</v>
+        <v>85933</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1636405388939985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1250859071010456</v>
+        <v>0.1280009165960739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2031344325244669</v>
+        <v>0.2048653895135607</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>66</v>
@@ -7137,19 +7137,19 @@
         <v>66998</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53417</v>
+        <v>51423</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>80768</v>
+        <v>82084</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.169292431300391</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1349752449554507</v>
+        <v>0.1299358017678065</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2040863776076406</v>
+        <v>0.2074123499798454</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>128</v>
@@ -7158,19 +7158,19 @@
         <v>135639</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>114404</v>
+        <v>116483</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>158620</v>
+        <v>160865</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1663843015341663</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.140335185011411</v>
+        <v>0.1428852050763976</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1945735723716978</v>
+        <v>0.1973272518387247</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>7765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3038</v>
+        <v>2992</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15865</v>
+        <v>15355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01851278009603195</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007242411609001469</v>
+        <v>0.007132742177907816</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03782281025349707</v>
+        <v>0.03660608547287339</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -7208,19 +7208,19 @@
         <v>18456</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11475</v>
+        <v>11324</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26993</v>
+        <v>27534</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04663531189271067</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02899622186071144</v>
+        <v>0.02861310181726634</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06820514131273153</v>
+        <v>0.06957345542773014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -7229,19 +7229,19 @@
         <v>26222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17595</v>
+        <v>18449</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>38311</v>
+        <v>39107</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03216511926713573</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02158315186588096</v>
+        <v>0.02263062612870034</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04699495207450253</v>
+        <v>0.04797078930567027</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>312864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>288517</v>
+        <v>289357</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>337745</v>
+        <v>338303</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.5298323920282935</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4886017086525457</v>
+        <v>0.4900240448874701</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5719685181215819</v>
+        <v>0.5729124682175822</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>277</v>
@@ -7354,19 +7354,19 @@
         <v>265771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>243855</v>
+        <v>242743</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>289123</v>
+        <v>288821</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.4716065872972925</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4327176377846847</v>
+        <v>0.4307445161687664</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.513044964735033</v>
+        <v>0.5125090615336405</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>581</v>
@@ -7375,19 +7375,19 @@
         <v>578635</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>541764</v>
+        <v>543800</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>611134</v>
+        <v>610966</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5013994208764364</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.4694497197072561</v>
+        <v>0.471213740208904</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5295604559555702</v>
+        <v>0.5294151095797027</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>147074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125762</v>
+        <v>127351</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168253</v>
+        <v>168230</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2490681174123236</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.212977198959158</v>
+        <v>0.2156682790107145</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2849345911021461</v>
+        <v>0.2848958977886877</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>166</v>
@@ -7425,19 +7425,19 @@
         <v>162879</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>142309</v>
+        <v>142743</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>184038</v>
+        <v>183549</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2890253730101037</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2525248277412597</v>
+        <v>0.253294684903552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3265732081202715</v>
+        <v>0.3257049976932865</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -7446,19 +7446,19 @@
         <v>309952</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>279061</v>
+        <v>279987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>339561</v>
+        <v>340706</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2685801447852003</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2418118969739702</v>
+        <v>0.2426148934008047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2942370375616863</v>
+        <v>0.2952285545045756</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>102479</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83604</v>
+        <v>83152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>121459</v>
+        <v>120268</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1735477787544601</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1415821320199471</v>
+        <v>0.140816518110971</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2056894613526879</v>
+        <v>0.2036720401175218</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>99</v>
@@ -7496,19 +7496,19 @@
         <v>96334</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>79664</v>
+        <v>79975</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113597</v>
+        <v>114044</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1709435125623873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1413630717273892</v>
+        <v>0.1419147650079831</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2015755745715594</v>
+        <v>0.2023698065854217</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>197</v>
@@ -7517,19 +7517,19 @@
         <v>198813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>174693</v>
+        <v>171891</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>225007</v>
+        <v>222957</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1722760569491016</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1513755957440437</v>
+        <v>0.1489472279726959</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1949731365913619</v>
+        <v>0.1931971776651181</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>28079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>19094</v>
+        <v>19175</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40540</v>
+        <v>42056</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04755171180492282</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03233546397824066</v>
+        <v>0.03247194654627308</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.06865379498725493</v>
+        <v>0.07122221309330527</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>37</v>
@@ -7567,19 +7567,19 @@
         <v>38560</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>27995</v>
+        <v>27442</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>52520</v>
+        <v>51605</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06842452713021653</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0496773370270013</v>
+        <v>0.04869453811204319</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09319663203503865</v>
+        <v>0.09157257053493553</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>62</v>
@@ -7588,19 +7588,19 @@
         <v>66639</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52276</v>
+        <v>52494</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>84818</v>
+        <v>86390</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05774437738926182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04529828212940696</v>
+        <v>0.04548708882435477</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07349641511857338</v>
+        <v>0.07485880187486067</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>302467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>278179</v>
+        <v>275613</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>329454</v>
+        <v>327977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4520528955824339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4157524869641209</v>
+        <v>0.4119181200430105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4923858298896209</v>
+        <v>0.4901784629159356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>264</v>
@@ -7713,19 +7713,19 @@
         <v>257867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>231516</v>
+        <v>233414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>283248</v>
+        <v>281898</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3898894567776019</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3500462130353664</v>
+        <v>0.3529170772817299</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4282638773077111</v>
+        <v>0.4262226123022785</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>556</v>
@@ -7734,19 +7734,19 @@
         <v>560335</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>526757</v>
+        <v>523944</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>596092</v>
+        <v>599241</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4211513008704666</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.395913838337586</v>
+        <v>0.3938002154138766</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4480269513832521</v>
+        <v>0.450393519149423</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>199016</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>173820</v>
+        <v>176730</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>222486</v>
+        <v>224439</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2974396672823835</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2597831414093615</v>
+        <v>0.2641317244366504</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3325173866948808</v>
+        <v>0.3354363786721102</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>173</v>
@@ -7784,19 +7784,19 @@
         <v>172134</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>148566</v>
+        <v>152050</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>194300</v>
+        <v>194903</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2602628766624328</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2246286112511666</v>
+        <v>0.2298960552771941</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2937766814198939</v>
+        <v>0.2946883084372964</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>361</v>
@@ -7805,19 +7805,19 @@
         <v>371150</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>339501</v>
+        <v>336329</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>406344</v>
+        <v>404090</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2789589953871844</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2551715899804516</v>
+        <v>0.2527872752996578</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3054106405933794</v>
+        <v>0.3037167779211264</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>118272</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>99960</v>
+        <v>98353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140049</v>
+        <v>138342</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1767630824724137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1493960424937837</v>
+        <v>0.1469931250168093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2093099265879217</v>
+        <v>0.2067599075063954</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>163</v>
@@ -7855,19 +7855,19 @@
         <v>163338</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>143212</v>
+        <v>142457</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>189265</v>
+        <v>185641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.246962838726233</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.216532571560808</v>
+        <v>0.2153921873835335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2861635476424921</v>
+        <v>0.2806844176074633</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>274</v>
@@ -7876,19 +7876,19 @@
         <v>281609</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>253013</v>
+        <v>251519</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>311909</v>
+        <v>310199</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2116595498870477</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1901662824874893</v>
+        <v>0.1890434358099572</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2344328766907361</v>
+        <v>0.2331475045440747</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>49342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37100</v>
+        <v>36715</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63307</v>
+        <v>64290</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07374435466276885</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05544775809296987</v>
+        <v>0.0548726898392702</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09461498713412385</v>
+        <v>0.09608491813490933</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>65</v>
@@ -7926,19 +7926,19 @@
         <v>68047</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53749</v>
+        <v>54932</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>85047</v>
+        <v>84247</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1028848278337324</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08126758743226063</v>
+        <v>0.0830565218926133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1285895388195237</v>
+        <v>0.1273788922861907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>112</v>
@@ -7947,19 +7947,19 @@
         <v>117389</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>96394</v>
+        <v>95988</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>139145</v>
+        <v>139113</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08823015385530124</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07245074470431208</v>
+        <v>0.07214531069051786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1045823017691496</v>
+        <v>0.1045579654700298</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>225504</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>200096</v>
+        <v>199496</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249342</v>
+        <v>252747</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3490511813550692</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3097232015703835</v>
+        <v>0.3087939913712623</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3859500338126027</v>
+        <v>0.3912202862805512</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>189</v>
@@ -8072,19 +8072,19 @@
         <v>202079</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>179972</v>
+        <v>180809</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>227522</v>
+        <v>226430</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3113330159476143</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2772738776463226</v>
+        <v>0.2785632348519288</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3505316346377752</v>
+        <v>0.3488492016897767</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>396</v>
@@ -8093,19 +8093,19 @@
         <v>427583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>388030</v>
+        <v>393085</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>461148</v>
+        <v>463052</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3301479968251698</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2996084062790898</v>
+        <v>0.3035109126038866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3560645421498267</v>
+        <v>0.3575343510480324</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>161242</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>139890</v>
+        <v>137935</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>185632</v>
+        <v>185256</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2495819363099585</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2165326461899481</v>
+        <v>0.2135057454687248</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2873341716987818</v>
+        <v>0.2867532788092632</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>147</v>
@@ -8143,19 +8143,19 @@
         <v>157040</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>134629</v>
+        <v>136392</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>178863</v>
+        <v>181526</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2419428245427255</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2074154325368219</v>
+        <v>0.2101323456635421</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.275564882992664</v>
+        <v>0.2796680659825788</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>293</v>
@@ -8164,19 +8164,19 @@
         <v>318281</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>285801</v>
+        <v>287080</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>351808</v>
+        <v>352756</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2457534484230055</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2206746588103991</v>
+        <v>0.2216621360095854</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2716401530206026</v>
+        <v>0.2723723139052813</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>162800</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>140950</v>
+        <v>141001</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>186302</v>
+        <v>187922</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2519935797062205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2181721295413686</v>
+        <v>0.2182518899690654</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2883716421606682</v>
+        <v>0.2908786872423482</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>151</v>
@@ -8214,19 +8214,19 @@
         <v>166843</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>143321</v>
+        <v>145065</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>189837</v>
+        <v>189806</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2570460609612936</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2208077914390683</v>
+        <v>0.2234937385755085</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2924728181483419</v>
+        <v>0.2924251260783774</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>294</v>
@@ -8235,19 +8235,19 @@
         <v>329643</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>297284</v>
+        <v>297276</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>363913</v>
+        <v>361572</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2545257279288811</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2295409542563198</v>
+        <v>0.2295348491858905</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2809866655417337</v>
+        <v>0.2791792920715221</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>96502</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>77112</v>
+        <v>80089</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>117144</v>
+        <v>118769</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1493733026287517</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1193595209245907</v>
+        <v>0.1239679648248087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1813246944214915</v>
+        <v>0.1838393583385073</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>115</v>
@@ -8285,19 +8285,19 @@
         <v>123116</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103767</v>
+        <v>102503</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144352</v>
+        <v>144116</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1896780985483667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1598689146367862</v>
+        <v>0.157921135732493</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2223960495634415</v>
+        <v>0.2220320495055347</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>201</v>
@@ -8306,19 +8306,19 @@
         <v>219618</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>193588</v>
+        <v>192584</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>249062</v>
+        <v>249607</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1695728268229436</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1494740936939908</v>
+        <v>0.1486988982424599</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1923071219976566</v>
+        <v>0.1927280970551631</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>101245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>83851</v>
+        <v>82764</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120296</v>
+        <v>120594</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2118457834785524</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1754500292372897</v>
+        <v>0.1731760768448334</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2517081733748678</v>
+        <v>0.2523322783586821</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>62</v>
@@ -8431,19 +8431,19 @@
         <v>71432</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>55559</v>
+        <v>56567</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>87718</v>
+        <v>89033</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.14377073013234</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1118225421824269</v>
+        <v>0.1138509793313733</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.176548539697334</v>
+        <v>0.1791950571150868</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>152</v>
@@ -8452,19 +8452,19 @@
         <v>172677</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>148368</v>
+        <v>147389</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>198027</v>
+        <v>198198</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1771472121488622</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1522081829392893</v>
+        <v>0.1512047121550752</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2031529452738531</v>
+        <v>0.2033282385576108</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>105035</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>88414</v>
+        <v>86371</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>124560</v>
+        <v>125476</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2197766412654831</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1849982223579322</v>
+        <v>0.1807236913447356</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.260630922926939</v>
+        <v>0.2625479594753793</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>92</v>
@@ -8502,19 +8502,19 @@
         <v>105588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>87712</v>
+        <v>84368</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>125888</v>
+        <v>124316</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2125157793040946</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1765359814583305</v>
+        <v>0.1698062880523459</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2533723931692488</v>
+        <v>0.2502084151552325</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>184</v>
@@ -8523,19 +8523,19 @@
         <v>210623</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>185746</v>
+        <v>185173</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>242384</v>
+        <v>238140</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2160757034872788</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.19055395143251</v>
+        <v>0.1899667475793134</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2486579462865309</v>
+        <v>0.2443044798599726</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>156845</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>135279</v>
+        <v>138315</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>179015</v>
+        <v>177813</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3281829998903964</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2830587611321006</v>
+        <v>0.2894114805236208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3745735075164888</v>
+        <v>0.3720569587583635</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -8573,19 +8573,19 @@
         <v>139359</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119582</v>
+        <v>119231</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>161325</v>
+        <v>159973</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2804862374109739</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2406805855437214</v>
+        <v>0.2399735367373671</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3246961628905385</v>
+        <v>0.3219759970088965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>263</v>
@@ -8594,19 +8594,19 @@
         <v>296204</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>268628</v>
+        <v>266010</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>328388</v>
+        <v>327344</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3038714579416802</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2755816842194221</v>
+        <v>0.2728964270614331</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3368891997342671</v>
+        <v>0.3358173309844923</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>114793</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>96398</v>
+        <v>96396</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>135572</v>
+        <v>135306</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2401945753655681</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2017045350653137</v>
+        <v>0.201700310029286</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2836714249372817</v>
+        <v>0.2831156636881148</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>158</v>
@@ -8644,19 +8644,19 @@
         <v>180469</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>156322</v>
+        <v>160672</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>205772</v>
+        <v>205644</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3632272531525915</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3146277464344129</v>
+        <v>0.3233817238960787</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4141544761409282</v>
+        <v>0.4138961902354241</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>258</v>
@@ -8665,19 +8665,19 @@
         <v>295262</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>267384</v>
+        <v>265730</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>326731</v>
+        <v>327794</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3029056264221788</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2743058809952235</v>
+        <v>0.2726090429697973</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3351886010173294</v>
+        <v>0.3362796594350713</v>
       </c>
     </row>
     <row r="28">
@@ -8769,19 +8769,19 @@
         <v>39008</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>28452</v>
+        <v>28664</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>52474</v>
+        <v>52050</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1166740812341839</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08510013241375655</v>
+        <v>0.08573609226820458</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1569532128246</v>
+        <v>0.1556850873825452</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>27</v>
@@ -8790,19 +8790,19 @@
         <v>27413</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19056</v>
+        <v>17470</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39533</v>
+        <v>37837</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07256625846289151</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05044502174249568</v>
+        <v>0.04624720825870255</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.104650758093443</v>
+        <v>0.1001621331545294</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>65</v>
@@ -8811,19 +8811,19 @@
         <v>66420</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>51000</v>
+        <v>53100</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>83848</v>
+        <v>83832</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.09327505495394925</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07161993248182406</v>
+        <v>0.07456965890552436</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1177490262560754</v>
+        <v>0.1177262981579125</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>61228</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48570</v>
+        <v>47958</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>77519</v>
+        <v>76052</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1831376373665037</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1452741476906664</v>
+        <v>0.1434443212675292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2318636058824435</v>
+        <v>0.2274747272236685</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>47</v>
@@ -8861,19 +8861,19 @@
         <v>52018</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>38735</v>
+        <v>39108</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>67596</v>
+        <v>67797</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1376997408622674</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1025391678360436</v>
+        <v>0.1035249901910225</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1789382420698798</v>
+        <v>0.1794704883057417</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>107</v>
@@ -8882,19 +8882,19 @@
         <v>113246</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>94019</v>
+        <v>93573</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>134031</v>
+        <v>135335</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1590330122088731</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1320325258998779</v>
+        <v>0.1314059762222734</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1882208653591097</v>
+        <v>0.1900530319124308</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>122397</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>102873</v>
+        <v>103872</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>140059</v>
+        <v>138949</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3660960371545038</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.307697961110717</v>
+        <v>0.3106864650774768</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4189257442949491</v>
+        <v>0.4156044675104783</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>93</v>
@@ -8932,19 +8932,19 @@
         <v>100434</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84061</v>
+        <v>83623</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>117357</v>
+        <v>118692</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2658650241300046</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2225243883680911</v>
+        <v>0.2213649002378867</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3106644840988866</v>
+        <v>0.3141974693420633</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>211</v>
@@ -8953,19 +8953,19 @@
         <v>222831</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>199610</v>
+        <v>197647</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>252179</v>
+        <v>248683</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3129238794623031</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2803142540040539</v>
+        <v>0.2775579858901885</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.354138379878226</v>
+        <v>0.3492283851017209</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>111697</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>94469</v>
+        <v>94630</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>130907</v>
+        <v>129739</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3340922442448085</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2825622896167344</v>
+        <v>0.2830423024638943</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3915501378233262</v>
+        <v>0.3880565200592108</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>187</v>
@@ -9003,19 +9003,19 @@
         <v>197898</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>179877</v>
+        <v>176071</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>217642</v>
+        <v>217758</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5238689765448366</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4761643874746428</v>
+        <v>0.466089203834019</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.576135392478107</v>
+        <v>0.576442360317186</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>296</v>
@@ -9024,19 +9024,19 @@
         <v>309595</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>282095</v>
+        <v>285005</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>337366</v>
+        <v>337940</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4347680533748746</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3961495231727605</v>
+        <v>0.4002356508304151</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4737668148433634</v>
+        <v>0.4745731213375726</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>15623</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>9924</v>
+        <v>9888</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>23984</v>
+        <v>23661</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06078888196002012</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03861361551123021</v>
+        <v>0.03847661119704777</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.0933223310630843</v>
+        <v>0.09206815584943204</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>11</v>
@@ -9149,19 +9149,19 @@
         <v>15329</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8303</v>
+        <v>8335</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>26530</v>
+        <v>26781</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03830583960333871</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02074841901745696</v>
+        <v>0.02082892835952811</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06629784683086563</v>
+        <v>0.06692312498182054</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>30</v>
@@ -9170,19 +9170,19 @@
         <v>30951</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>20989</v>
+        <v>20994</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>44252</v>
+        <v>43907</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.04709827278876806</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03193900116091399</v>
+        <v>0.03194653680930201</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06733823058893143</v>
+        <v>0.06681309619039924</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>29548</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>21224</v>
+        <v>20700</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>40163</v>
+        <v>39428</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1149749227380765</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08258239560413244</v>
+        <v>0.08054716809331497</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1562786966507429</v>
+        <v>0.1534177105155124</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>13</v>
@@ -9220,19 +9220,19 @@
         <v>16425</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>9004</v>
+        <v>9846</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>27770</v>
+        <v>28015</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04104561740346267</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02249953873926565</v>
+        <v>0.02460375055650979</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06939466040432092</v>
+        <v>0.07000756747919236</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>49</v>
@@ -9241,19 +9241,19 @@
         <v>45974</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>34462</v>
+        <v>34889</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>59370</v>
+        <v>60493</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06995711733695047</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05244012478047298</v>
+        <v>0.05308974733180564</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09034255372661827</v>
+        <v>0.09205185762752094</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>53657</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42695</v>
+        <v>42807</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>66255</v>
+        <v>65741</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2087819560745817</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1661316428608654</v>
+        <v>0.1665667482145493</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2578028435195602</v>
+        <v>0.2558032270233154</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>52</v>
@@ -9291,19 +9291,19 @@
         <v>68250</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>52597</v>
+        <v>53197</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>86572</v>
+        <v>85643</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1705525464883869</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1314357388910782</v>
+        <v>0.1329358111214128</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2163382265342821</v>
+        <v>0.2140159035524641</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>116</v>
@@ -9312,19 +9312,19 @@
         <v>121906</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>100182</v>
+        <v>101372</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>141576</v>
+        <v>143020</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1855029043702303</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1524446007160433</v>
+        <v>0.154255353601062</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2154338711461562</v>
+        <v>0.2176317277012866</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>158171</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>143177</v>
+        <v>143648</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>171707</v>
+        <v>173092</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6154542392273217</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5571130707903892</v>
+        <v>0.5589442887317336</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6681269719694359</v>
+        <v>0.6735160973154983</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>225</v>
@@ -9362,19 +9362,19 @@
         <v>300165</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>278675</v>
+        <v>280033</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>318391</v>
+        <v>318923</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7500959965048117</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.696393128249397</v>
+        <v>0.6997874461489818</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7956409805331877</v>
+        <v>0.796971057588548</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>408</v>
@@ -9383,19 +9383,19 @@
         <v>458336</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>435067</v>
+        <v>433355</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>481426</v>
+        <v>483751</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6974417055040512</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6620341745471175</v>
+        <v>0.6594292363452914</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7325783093687669</v>
+        <v>0.7361155918316288</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>1216377</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1154413</v>
+        <v>1161409</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1267794</v>
+        <v>1274393</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3583535137615771</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.3400983294860914</v>
+        <v>0.3421594931979029</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3735012754350495</v>
+        <v>0.3754452840599809</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1046</v>
@@ -9508,19 +9508,19 @@
         <v>1049877</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>992448</v>
+        <v>993147</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>1111831</v>
+        <v>1101157</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2961953854371638</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2799931959159677</v>
+        <v>0.2801905488849862</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.3136742009746436</v>
+        <v>0.3106628320015483</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2203</v>
@@ -9529,19 +9529,19 @@
         <v>2266254</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>2185823</v>
+        <v>2193316</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>2347579</v>
+        <v>2343570</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.3266017462515167</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.3150103262355384</v>
+        <v>0.3160902748741057</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.3383218455956951</v>
+        <v>0.3377441196981982</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>826533</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>775956</v>
+        <v>774951</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>877900</v>
+        <v>875390</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.243502554277719</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2286021720098785</v>
+        <v>0.2283061536294939</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2586357880664078</v>
+        <v>0.2578963529294718</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>741</v>
@@ -9579,19 +9579,19 @@
         <v>766398</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>714020</v>
+        <v>720894</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>816992</v>
+        <v>818944</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2162193186436273</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2014422334644831</v>
+        <v>0.2033814553797296</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2304931024435007</v>
+        <v>0.2310435682912602</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1520</v>
@@ -9600,19 +9600,19 @@
         <v>1592931</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1521779</v>
+        <v>1520817</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1664309</v>
+        <v>1661686</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.229565664958038</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2193115957896086</v>
+        <v>0.2191729350490576</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.23985225641672</v>
+        <v>0.2394742669196904</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>785090</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>739317</v>
+        <v>729552</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>839883</v>
+        <v>833351</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2312931840916052</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2178080392423102</v>
+        <v>0.2149312943692547</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2474355602196586</v>
+        <v>0.2455111952339387</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>745</v>
@@ -9650,19 +9650,19 @@
         <v>801556</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>751655</v>
+        <v>746445</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>856565</v>
+        <v>855130</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2261380548270666</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2120597978879764</v>
+        <v>0.2105899652538283</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.241657499466746</v>
+        <v>0.2412525854073733</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1483</v>
@@ -9671,19 +9671,19 @@
         <v>1586646</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1509693</v>
+        <v>1516468</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1661522</v>
+        <v>1660620</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2286598283213406</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2175698029125934</v>
+        <v>0.2185461515324981</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2394505913136203</v>
+        <v>0.2393206420697473</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>566350</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>524096</v>
+        <v>523560</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>609945</v>
+        <v>610378</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1668507478690987</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1544024319498621</v>
+        <v>0.1542445487510044</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1796943019349646</v>
+        <v>0.1798218473448686</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>806</v>
@@ -9721,19 +9721,19 @@
         <v>926711</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>875066</v>
+        <v>868784</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>981528</v>
+        <v>982809</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2614472410921424</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2468770966135048</v>
+        <v>0.2451047123067584</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2769123722900101</v>
+        <v>0.2772737755479987</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1363</v>
@@ -9742,19 +9742,19 @@
         <v>1493061</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1422569</v>
+        <v>1425459</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1566584</v>
+        <v>1560437</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2151727604691047</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2050138658982271</v>
+        <v>0.2054304182217138</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.225768547184199</v>
+        <v>0.2248827002589991</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>193084</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160392</v>
+        <v>161023</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227084</v>
+        <v>226516</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4734849931200396</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.393317216503179</v>
+        <v>0.3948655006121212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5568618123798258</v>
+        <v>0.5554679488115334</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>92</v>
@@ -10110,19 +10110,19 @@
         <v>162147</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>137999</v>
+        <v>138562</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>188527</v>
+        <v>189129</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4491414309392711</v>
+        <v>0.449141430939271</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3822515025491658</v>
+        <v>0.3838130557574821</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5222132133347902</v>
+        <v>0.5238806362612068</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>173</v>
@@ -10131,19 +10131,19 @@
         <v>355231</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>313379</v>
+        <v>314573</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>398468</v>
+        <v>394720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4620538009470101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4076161838039962</v>
+        <v>0.4091694008209017</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5182927116502677</v>
+        <v>0.5134174784244544</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>132264</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103598</v>
+        <v>103707</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>166080</v>
+        <v>163639</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3243413699104646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2540457369417179</v>
+        <v>0.254313340531391</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4072655883523187</v>
+        <v>0.4012806661687913</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>78</v>
@@ -10181,19 +10181,19 @@
         <v>127961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103737</v>
+        <v>105935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151700</v>
+        <v>152948</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3544490685340835</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.287346804251796</v>
+        <v>0.2934366448172434</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4202045225869633</v>
+        <v>0.4236624352771903</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>136</v>
@@ -10202,19 +10202,19 @@
         <v>260226</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>222822</v>
+        <v>222869</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>300011</v>
+        <v>303631</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3384792715987449</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2898273232917757</v>
+        <v>0.2898891431955247</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3902281596745786</v>
+        <v>0.394936324611895</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>76424</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52084</v>
+        <v>55225</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>102231</v>
+        <v>106415</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1874093810649394</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1277212296183094</v>
+        <v>0.1354228897937906</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2506942957773559</v>
+        <v>0.2609546523240439</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -10252,19 +10252,19 @@
         <v>45430</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>30645</v>
+        <v>31264</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66812</v>
+        <v>64971</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1258393478678444</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08488592211811388</v>
+        <v>0.08660078679946036</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1850667680742547</v>
+        <v>0.1799663191218993</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -10273,19 +10273,19 @@
         <v>121854</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94928</v>
+        <v>91580</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>157315</v>
+        <v>151567</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1584974709529585</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1234743441328167</v>
+        <v>0.1191194402289378</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2046219014088163</v>
+        <v>0.1971447565108987</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>6021</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1465</v>
+        <v>1494</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18055</v>
+        <v>17348</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01476425590455648</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003591971838776961</v>
+        <v>0.003663725529239542</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04427416367132869</v>
+        <v>0.04254096760385696</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>12</v>
@@ -10323,19 +10323,19 @@
         <v>25477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13838</v>
+        <v>13959</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>43532</v>
+        <v>43335</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07057015265880101</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03832975309624939</v>
+        <v>0.03866618788660214</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1205835451844307</v>
+        <v>0.1200352230676914</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -10344,19 +10344,19 @@
         <v>31498</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>17789</v>
+        <v>16417</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>52685</v>
+        <v>51495</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04096945650128656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0231378749642892</v>
+        <v>0.02135407438906123</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06852759435538053</v>
+        <v>0.06697965344773604</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>176618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>149175</v>
+        <v>148864</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>206933</v>
+        <v>203605</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.370352948487487</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3128081655045325</v>
+        <v>0.3121556252346158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4339223497741942</v>
+        <v>0.4269431046158342</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>158</v>
@@ -10469,19 +10469,19 @@
         <v>173514</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>150911</v>
+        <v>151032</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>195840</v>
+        <v>195677</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3466778296002612</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3015180021871487</v>
+        <v>0.3017598399060605</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3912858218888924</v>
+        <v>0.3909602662588411</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>264</v>
@@ -10490,19 +10490,19 @@
         <v>350131</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315790</v>
+        <v>315632</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>386980</v>
+        <v>385326</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3582293961316279</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3230936102933987</v>
+        <v>0.3229321468935987</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3959301051538569</v>
+        <v>0.394237777700311</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>157010</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132606</v>
+        <v>134955</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182836</v>
+        <v>190134</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3292364414189802</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2780638886766694</v>
+        <v>0.282989428259532</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3833929107346264</v>
+        <v>0.3986952602542841</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>165</v>
@@ -10540,19 +10540,19 @@
         <v>181608</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>159451</v>
+        <v>160890</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203924</v>
+        <v>203722</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3628501997823687</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3185798889347701</v>
+        <v>0.3214563848392782</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4074369147039499</v>
+        <v>0.4070328190499523</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>269</v>
@@ -10561,19 +10561,19 @@
         <v>338618</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>306596</v>
+        <v>302981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>371915</v>
+        <v>372069</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3464493712182735</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3136876104131032</v>
+        <v>0.3099885169466486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3805174337421767</v>
+        <v>0.3806747336361709</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>96495</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74024</v>
+        <v>76365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>122721</v>
+        <v>122042</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2023422170285576</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1552228914436924</v>
+        <v>0.160130333768799</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2573367769596266</v>
+        <v>0.2559113140283678</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -10611,19 +10611,19 @@
         <v>108865</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>90923</v>
+        <v>89776</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>128477</v>
+        <v>127495</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2175108982608797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.181662797144171</v>
+        <v>0.17937212022219</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2566950806657176</v>
+        <v>0.2547323454471264</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>161</v>
@@ -10632,19 +10632,19 @@
         <v>205360</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>177025</v>
+        <v>176791</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>236402</v>
+        <v>240629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2101097936969316</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.181119109054117</v>
+        <v>0.1808804610519227</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.241869440168453</v>
+        <v>0.2461948141120061</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>46768</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32814</v>
+        <v>32056</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>65158</v>
+        <v>64730</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09806839306497528</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06880849651038157</v>
+        <v>0.06721969530869849</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1366309341613892</v>
+        <v>0.1357329345026126</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>35</v>
@@ -10682,19 +10682,19 @@
         <v>36517</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>26767</v>
+        <v>25593</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>49975</v>
+        <v>49298</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07296107235649039</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05348045365309755</v>
+        <v>0.05113471347094397</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09984931995943225</v>
+        <v>0.09849739480271269</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>67</v>
@@ -10703,19 +10703,19 @@
         <v>83285</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66039</v>
+        <v>63660</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>104480</v>
+        <v>103466</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0852114389531672</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06756662277915158</v>
+        <v>0.06513213848222422</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1068970059765661</v>
+        <v>0.1058590830445441</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>183419</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>159253</v>
+        <v>158826</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208566</v>
+        <v>209856</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2959085363802595</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2569215418495529</v>
+        <v>0.2562332297211602</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3364782905169211</v>
+        <v>0.3385599786625911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>246</v>
@@ -10828,19 +10828,19 @@
         <v>184918</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>166654</v>
+        <v>167139</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>204744</v>
+        <v>204654</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2976028283421786</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2682085907391064</v>
+        <v>0.2689892570274117</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3295102626514416</v>
+        <v>0.3293649438386245</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>399</v>
@@ -10849,19 +10849,19 @@
         <v>368337</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>335217</v>
+        <v>338618</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400926</v>
+        <v>403743</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.296756712536889</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2700732758894754</v>
+        <v>0.2728131096767571</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3230131741349709</v>
+        <v>0.3252823104195767</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>231577</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>205045</v>
+        <v>205732</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>255961</v>
+        <v>256965</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.37360301107132</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3307990386101501</v>
+        <v>0.3319064750743035</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4129406429273902</v>
+        <v>0.4145606465054831</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>276</v>
@@ -10899,19 +10899,19 @@
         <v>206773</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>186839</v>
+        <v>186966</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>224355</v>
+        <v>227491</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.3327753385205033</v>
+        <v>0.3327753385205032</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3006940934336279</v>
+        <v>0.300898948866659</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3610721841059485</v>
+        <v>0.3661194979623251</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>481</v>
@@ -10920,19 +10920,19 @@
         <v>438350</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>404342</v>
+        <v>404221</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>470512</v>
+        <v>468851</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3531643504587448</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3257649087812671</v>
+        <v>0.3256674494901508</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3790765344604713</v>
+        <v>0.3777381623551133</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>136345</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>116050</v>
+        <v>116672</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161648</v>
+        <v>159803</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2199643516218681</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1872225097988922</v>
+        <v>0.1882262431958756</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2607853212609678</v>
+        <v>0.2578099063073392</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -10970,19 +10970,19 @@
         <v>137518</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>121356</v>
+        <v>121291</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>155475</v>
+        <v>156370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2213182284830423</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1953076473577524</v>
+        <v>0.1952027942744361</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2502179995342865</v>
+        <v>0.2516579467182434</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -10991,19 +10991,19 @@
         <v>273863</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>247247</v>
+        <v>244311</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301633</v>
+        <v>299144</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.22064211324647</v>
+        <v>0.2206421132464701</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1991984914155155</v>
+        <v>0.1968332354754776</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2430155085714348</v>
+        <v>0.2410109604078634</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>68508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53149</v>
+        <v>53207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>85372</v>
+        <v>87100</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1105241009265525</v>
+        <v>0.1105241009265524</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08574514503991421</v>
+        <v>0.08583815970523341</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1377310432795993</v>
+        <v>0.1405182365920076</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>128</v>
@@ -11041,19 +11041,19 @@
         <v>92150</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79065</v>
+        <v>78222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107969</v>
+        <v>107524</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1483036046542759</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1272448984680523</v>
+        <v>0.1258893036387739</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1737623965003822</v>
+        <v>0.1730467526339855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>189</v>
@@ -11062,19 +11062,19 @@
         <v>160658</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>139631</v>
+        <v>139871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>183053</v>
+        <v>184400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1294368237578962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.11249584517493</v>
+        <v>0.1126895899366152</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1474795644220878</v>
+        <v>0.1485652773883923</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>155941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135746</v>
+        <v>135865</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>179618</v>
+        <v>178857</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2232258633011004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1943176347229962</v>
+        <v>0.194487220947675</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2571195697189776</v>
+        <v>0.2560300591986452</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>232</v>
@@ -11187,19 +11187,19 @@
         <v>153781</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>137078</v>
+        <v>138196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172177</v>
+        <v>172092</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2097403234935931</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1869601029107256</v>
+        <v>0.1884838959414367</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2348306352714832</v>
+        <v>0.2347152027894631</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>377</v>
@@ -11208,19 +11208,19 @@
         <v>309722</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>280939</v>
+        <v>282745</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>338518</v>
+        <v>338583</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2163200688239612</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1962173740701467</v>
+        <v>0.197478333218268</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2364321730017845</v>
+        <v>0.2364774546111497</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>213618</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>187802</v>
+        <v>188665</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236566</v>
+        <v>239915</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3057889293193941</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2688338605861816</v>
+        <v>0.2700697724339505</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3386385651940649</v>
+        <v>0.3434322853485097</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>290</v>
@@ -11258,19 +11258,19 @@
         <v>193172</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>174785</v>
+        <v>175950</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213614</v>
+        <v>212357</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2634654475045448</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2383873022859402</v>
+        <v>0.2399767870373248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2913465090542502</v>
+        <v>0.2896324918352984</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>486</v>
@@ -11279,19 +11279,19 @@
         <v>406790</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>373871</v>
+        <v>376476</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>438258</v>
+        <v>438190</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2841155464854653</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2611240409674069</v>
+        <v>0.2629437072676039</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3060939012459066</v>
+        <v>0.3060468203917002</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>191144</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>170242</v>
+        <v>169365</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>216457</v>
+        <v>215292</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2736176965202199</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2436974249200983</v>
+        <v>0.2424426405627973</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3098534719452337</v>
+        <v>0.3081852264043448</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>335</v>
@@ -11329,19 +11329,19 @@
         <v>208225</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>188381</v>
+        <v>188301</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>227785</v>
+        <v>226359</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2839962958001139</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2569307727085021</v>
+        <v>0.256821538382011</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3106741128672645</v>
+        <v>0.3087286619778604</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>530</v>
@@ -11350,19 +11350,19 @@
         <v>399369</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>371571</v>
+        <v>369385</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>431957</v>
+        <v>430140</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.278932461417331</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2595179557999867</v>
+        <v>0.2579906635400439</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3016935114090247</v>
+        <v>0.3004245936320399</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>137877</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118332</v>
+        <v>117245</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>161750</v>
+        <v>161679</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1973675108592857</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1693888776728699</v>
+        <v>0.1678330879303546</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.231541214666062</v>
+        <v>0.2314394326792555</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>278</v>
@@ -11400,19 +11400,19 @@
         <v>178018</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>161382</v>
+        <v>159614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>197098</v>
+        <v>196932</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2427979332017483</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2201080857240174</v>
+        <v>0.2176968584221697</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2688202338628712</v>
+        <v>0.268593554992331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>405</v>
@@ -11421,19 +11421,19 @@
         <v>315895</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>287019</v>
+        <v>285181</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>345869</v>
+        <v>343493</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2206319232732427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2004634685125173</v>
+        <v>0.1991797779645993</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2415669252101419</v>
+        <v>0.2399073515639713</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>95201</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79446</v>
+        <v>77639</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>114849</v>
+        <v>113014</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1580655021220577</v>
+        <v>0.1580655021220576</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1319067782326187</v>
+        <v>0.1289066959076891</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.190687411903645</v>
+        <v>0.1876403851786721</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>143</v>
@@ -11546,19 +11546,19 @@
         <v>88033</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75366</v>
+        <v>75149</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>101408</v>
+        <v>102612</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1451528839813475</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1242666207660876</v>
+        <v>0.1239096272942158</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1672065926015858</v>
+        <v>0.1691910727292795</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>242</v>
@@ -11567,19 +11567,19 @@
         <v>183234</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>160830</v>
+        <v>161378</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>206067</v>
+        <v>206066</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1515867884058615</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1330521501534328</v>
+        <v>0.1335055755020996</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1704763036025208</v>
+        <v>0.1704749463673808</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>161216</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>139703</v>
+        <v>141536</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>181728</v>
+        <v>182379</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2676710208190684</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2319527876160164</v>
+        <v>0.2349956285581052</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3017289712296404</v>
+        <v>0.3028087552392688</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>208</v>
@@ -11617,19 +11617,19 @@
         <v>129588</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>113449</v>
+        <v>113538</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>145225</v>
+        <v>145906</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.2136710892796006</v>
+        <v>0.2136710892796005</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1870606107316823</v>
+        <v>0.1872065753560989</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2394528064252442</v>
+        <v>0.2405758432304121</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>382</v>
@@ -11638,19 +11638,19 @@
         <v>290804</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265196</v>
+        <v>267676</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>319661</v>
+        <v>318508</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2405773599265949</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2193923636852087</v>
+        <v>0.22144430201724</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.264450776733191</v>
+        <v>0.2634962012601165</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>163322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>143207</v>
+        <v>143544</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184472</v>
+        <v>185646</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2711681325655042</v>
+        <v>0.2711681325655043</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2377704450390373</v>
+        <v>0.2383300544784038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3062839429421176</v>
+        <v>0.308234274693704</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>273</v>
@@ -11688,19 +11688,19 @@
         <v>159976</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>143953</v>
+        <v>143011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>177809</v>
+        <v>176297</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2637754026999884</v>
+        <v>0.2637754026999883</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2373560041260699</v>
+        <v>0.235803364468605</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2931790712094838</v>
+        <v>0.290687284835162</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>459</v>
@@ -11709,19 +11709,19 @@
         <v>323298</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>296835</v>
+        <v>296647</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>349324</v>
+        <v>350259</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2674589405288522</v>
+        <v>0.2674589405288523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2455671199586974</v>
+        <v>0.2454116319022092</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.288989985106161</v>
+        <v>0.2897640050742895</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>182551</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>160834</v>
+        <v>161231</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>205804</v>
+        <v>204657</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3030953444933697</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2670379975061122</v>
+        <v>0.2676959777474995</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3417020563414845</v>
+        <v>0.3397980496635015</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>374</v>
@@ -11759,19 +11759,19 @@
         <v>228888</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>210408</v>
+        <v>211095</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>247719</v>
+        <v>247740</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3774006240390635</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3469297050374502</v>
+        <v>0.3480632057827774</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.408450855648354</v>
+        <v>0.4084847402379633</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>573</v>
@@ -11780,19 +11780,19 @@
         <v>411439</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>382326</v>
+        <v>383058</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>441911</v>
+        <v>440673</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3403769111386912</v>
+        <v>0.3403769111386913</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3162923569455129</v>
+        <v>0.3168976905836783</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3655857005816188</v>
+        <v>0.3645618519611189</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>50373</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>39564</v>
+        <v>39612</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63670</v>
+        <v>62102</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1252765957288968</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09839485070232251</v>
+        <v>0.09851467015796662</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.158345996568508</v>
+        <v>0.1544460426994335</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>80</v>
@@ -11905,19 +11905,19 @@
         <v>43018</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>34500</v>
+        <v>34444</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>52632</v>
+        <v>52667</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.0983820828996286</v>
+        <v>0.09838208289962859</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07890122059983595</v>
+        <v>0.07877429497935882</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1203706852280718</v>
+        <v>0.1204506158237757</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>148</v>
@@ -11926,19 +11926,19 @@
         <v>93390</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>79942</v>
+        <v>79629</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>107042</v>
+        <v>108748</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1112660745472069</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09524316111243554</v>
+        <v>0.09487074999789621</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1275302626437191</v>
+        <v>0.1295638203024889</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>101097</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86237</v>
+        <v>86517</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>116039</v>
+        <v>116355</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2514274498308637</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2144702709678744</v>
+        <v>0.215166628310634</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2885888329715032</v>
+        <v>0.2893737970329184</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -11976,19 +11976,19 @@
         <v>59824</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50102</v>
+        <v>49534</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>70644</v>
+        <v>70873</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1368191569530202</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1145837184920986</v>
+        <v>0.1132854868196867</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1615644608508561</v>
+        <v>0.1620870159592766</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>252</v>
@@ -11997,19 +11997,19 @@
         <v>160921</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>143168</v>
+        <v>143129</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>178129</v>
+        <v>179422</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.191723006580458</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1705719715166801</v>
+        <v>0.1705250418891502</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2122249867510005</v>
+        <v>0.2137655698506402</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>124492</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>110016</v>
+        <v>109732</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>141297</v>
+        <v>139713</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3096095924873299</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2736094780933314</v>
+        <v>0.2729025942746258</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3514034531566619</v>
+        <v>0.3474646852697946</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>239</v>
@@ -12047,19 +12047,19 @@
         <v>125044</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>112435</v>
+        <v>111352</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>138427</v>
+        <v>139694</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2859771660824332</v>
+        <v>0.2859771660824331</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2571420864378575</v>
+        <v>0.2546644017391287</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3165847401360262</v>
+        <v>0.3194835183548016</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>413</v>
@@ -12068,19 +12068,19 @@
         <v>249535</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>229333</v>
+        <v>229497</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>271149</v>
+        <v>270144</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.2972984339687711</v>
+        <v>0.297298433968771</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2732300586615372</v>
+        <v>0.2734252688019954</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3230494572799929</v>
+        <v>0.3218520401046098</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>126131</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>110651</v>
+        <v>112757</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>141810</v>
+        <v>143000</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3136863619529096</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2751887667538258</v>
+        <v>0.2804264020999483</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3526814123710594</v>
+        <v>0.3556396142918913</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>393</v>
@@ -12118,19 +12118,19 @@
         <v>209365</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>194103</v>
+        <v>193813</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>224559</v>
+        <v>223447</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.478821594064918</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4439166836268788</v>
+        <v>0.4432545877622524</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5135709485269736</v>
+        <v>0.5110290040383935</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>575</v>
@@ -12139,19 +12139,19 @@
         <v>335495</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>311975</v>
+        <v>314301</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>357327</v>
+        <v>358373</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.399712484903564</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3716894649198157</v>
+        <v>0.3744617164376148</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4257229705055056</v>
+        <v>0.4269685019607951</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>21497</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>14242</v>
+        <v>14181</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>29720</v>
+        <v>29338</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06988385274741989</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04629886763988212</v>
+        <v>0.04610225160406779</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09661762555286919</v>
+        <v>0.09537504206977396</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>31</v>
@@ -12264,19 +12264,19 @@
         <v>16341</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>11159</v>
+        <v>11205</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23198</v>
+        <v>22631</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03585022579355306</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02448219795081632</v>
+        <v>0.02458104800054376</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05089367587249501</v>
+        <v>0.04964861800190145</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>60</v>
@@ -12285,19 +12285,19 @@
         <v>37838</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>29853</v>
+        <v>29181</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>49480</v>
+        <v>48348</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.0495634236991325</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.03910423525705517</v>
+        <v>0.03822392481590244</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06481336295655872</v>
+        <v>0.06333052401282796</v>
       </c>
     </row>
     <row r="35">
@@ -12314,19 +12314,19 @@
         <v>38559</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>29509</v>
+        <v>30198</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>47697</v>
+        <v>48922</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1253494041797579</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.09593023122765935</v>
+        <v>0.09817003504544601</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.155056404097294</v>
+        <v>0.1590398978000733</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -12335,19 +12335,19 @@
         <v>20956</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>15315</v>
+        <v>14970</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>28239</v>
+        <v>28551</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04597514014674869</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03359792432300362</v>
+        <v>0.03284304492533369</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06195165445092746</v>
+        <v>0.06263638960840752</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>96</v>
@@ -12356,19 +12356,19 @@
         <v>59515</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>47990</v>
+        <v>49094</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>71514</v>
+        <v>72489</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07795747904850076</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06286149060047173</v>
+        <v>0.06430677557776165</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09367536696272451</v>
+        <v>0.09495188515780341</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>71633</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>61398</v>
+        <v>60634</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>85833</v>
+        <v>86863</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.2328708710504661</v>
+        <v>0.2328708710504662</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1995972802157378</v>
+        <v>0.1971139423353598</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2790326684306881</v>
+        <v>0.2823800235981215</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>118</v>
@@ -12406,19 +12406,19 @@
         <v>61874</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>51915</v>
+        <v>51007</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>73243</v>
+        <v>73274</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1357421212802072</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1138941882994829</v>
+        <v>0.1119009817392131</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1606833966027178</v>
+        <v>0.1607527854383161</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>227</v>
@@ -12427,19 +12427,19 @@
         <v>133507</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>118131</v>
+        <v>116976</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>150043</v>
+        <v>150661</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1748782900384339</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1547371792804206</v>
+        <v>0.1532250804438093</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1965378531672284</v>
+        <v>0.1973474015568409</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>175920</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>161228</v>
+        <v>160675</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>189993</v>
+        <v>190000</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.5718958720223559</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.5241337836349813</v>
+        <v>0.5223351277943439</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6176446543633464</v>
+        <v>0.6176673288472334</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>677</v>
@@ -12477,19 +12477,19 @@
         <v>356648</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>343499</v>
+        <v>343234</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>369269</v>
+        <v>369589</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7824325127794911</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.7535867721724304</v>
+        <v>0.7530043712499087</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8101212967575825</v>
+        <v>0.81082365804238</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>935</v>
@@ -12498,19 +12498,19 @@
         <v>532568</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>512639</v>
+        <v>511706</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>552513</v>
+        <v>552002</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6976008072139327</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.671495641329796</v>
+        <v>0.6702735809281627</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7237268947331533</v>
+        <v>0.7230572452438929</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>876132</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>817293</v>
+        <v>810540</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>939784</v>
+        <v>936462</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2492479542427429</v>
+        <v>0.249247954242743</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2325090559868551</v>
+        <v>0.2305877125686135</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2673559399644627</v>
+        <v>0.2664109721836591</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>982</v>
@@ -12623,19 +12623,19 @@
         <v>821751</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>774309</v>
+        <v>770173</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>871353</v>
+        <v>867586</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2211607834760499</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2083926596721994</v>
+        <v>0.2072794801754186</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.234510441095956</v>
+        <v>0.2334965118573533</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>1663</v>
@@ -12644,19 +12644,19 @@
         <v>1697883</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1617672</v>
+        <v>1621322</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1786879</v>
+        <v>1786143</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2348149076917662</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2237218413344429</v>
+        <v>0.2242266373996024</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2471229029753605</v>
+        <v>0.2470210939122178</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>1035340</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>978928</v>
+        <v>978824</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1091577</v>
+        <v>1100628</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.2945405504381463</v>
+        <v>0.2945405504381464</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2784920417762127</v>
+        <v>0.2784623408411286</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3105390403713451</v>
+        <v>0.3131138756891494</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1167</v>
@@ -12694,19 +12694,19 @@
         <v>919883</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>873535</v>
+        <v>874328</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>966413</v>
+        <v>973074</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.2475713143317676</v>
+        <v>0.2475713143317675</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2350976226015532</v>
+        <v>0.2353110657334796</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2600940626609912</v>
+        <v>0.2618868781139074</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2102</v>
@@ -12715,19 +12715,19 @@
         <v>1955223</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1882292</v>
+        <v>1880355</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2034667</v>
+        <v>2030782</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.2704046495025108</v>
+        <v>0.2704046495025106</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2603184267976443</v>
+        <v>0.260050502377362</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2813915754461889</v>
+        <v>0.280854352723561</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>859854</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>803624</v>
+        <v>804969</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>919479</v>
+        <v>919850</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2446170950955898</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2286202458267225</v>
+        <v>0.2290028512422863</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2615796227323916</v>
+        <v>0.2616851894565106</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1285</v>
@@ -12765,19 +12765,19 @@
         <v>846931</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>806723</v>
+        <v>802426</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>891621</v>
+        <v>892490</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2279375312063922</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2171161313294228</v>
+        <v>0.2159596971672726</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2399651290803559</v>
+        <v>0.2401991228187858</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2165</v>
@@ -12786,19 +12786,19 @@
         <v>1706785</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1636105</v>
+        <v>1642163</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1776156</v>
+        <v>1779476</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2360460316708515</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2262710992144704</v>
+        <v>0.2271088687683216</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2456399039357385</v>
+        <v>0.2460990155917048</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>743776</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>699617</v>
+        <v>691521</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>791663</v>
+        <v>787524</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2115944002235209</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1990318071176179</v>
+        <v>0.1967285362591533</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2252175043496672</v>
+        <v>0.2240401249399002</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1897</v>
@@ -12836,19 +12836,19 @@
         <v>1127063</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1075508</v>
+        <v>1082715</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1170050</v>
+        <v>1179345</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3033303709857903</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2894554468143383</v>
+        <v>0.2913950628832184</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3148996357325343</v>
+        <v>0.3174012607880579</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2759</v>
@@ -12857,19 +12857,19 @@
         <v>1870839</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1808023</v>
+        <v>1800979</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1938892</v>
+        <v>1941183</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2587344111348715</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2500471021111381</v>
+        <v>0.2490728787982831</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2681461463154242</v>
+        <v>0.2684629070603896</v>
       </c>
     </row>
     <row r="43">
